--- a/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
+++ b/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="426">
   <si>
     <t>Property</t>
   </si>
@@ -30,58 +30,61 @@
     <t>Version</t>
   </si>
   <si>
+    <t>4.0.2-ballot</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>ESMSDocumentReference</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>active</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>2023-06-27T09:51:35+02:00</t>
+  </si>
+  <si>
+    <t>Publisher</t>
+  </si>
+  <si>
+    <t>ANS</t>
+  </si>
+  <si>
+    <t>Contact</t>
+  </si>
+  <si>
+    <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Profil pour définir le dossier ESMS</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>FHIR Version</t>
+  </si>
+  <si>
     <t>4.0.1</t>
-  </si>
-  <si>
-    <t>Name</t>
-  </si>
-  <si>
-    <t>ESMSDocumentReference</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>active</t>
-  </si>
-  <si>
-    <t>Experimental</t>
-  </si>
-  <si>
-    <t>Date</t>
-  </si>
-  <si>
-    <t>2023-06-27T09:51:35+02:00</t>
-  </si>
-  <si>
-    <t>Publisher</t>
-  </si>
-  <si>
-    <t>ANS</t>
-  </si>
-  <si>
-    <t>Contact</t>
-  </si>
-  <si>
-    <t>No display for ContactDetail</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Profil pour définir le dossier ESMS</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>FHIR Version</t>
   </si>
   <si>
     <t>Kind</t>
@@ -1581,47 +1584,47 @@
         <v>22</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>5</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -1686,5672 +1689,5672 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ3" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ5" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ6" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ7" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ8" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ9" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AN14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AG16" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI16" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ18" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AM44" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="AN44" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AN44" t="s" s="2">
-        <v>399</v>
-      </c>
       <c r="AO44" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
+++ b/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="496">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot</t>
+    <t>4.0.2-ballot-2</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-27T09:51:35+02:00</t>
+    <t>2024-01-19T09:51:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -67,6 +67,12 @@
   </si>
   <si>
     <t>No display for ContactDetail</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
   </si>
   <si>
     <t>Description</t>
@@ -268,6 +274,10 @@
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}regle-NomPieceJointe:Le nom de la pièce jointe doit être  : "Document Individu et décision" ou "Document évaluation" {content.attachment.title='Document Individu et décision' or content.attachment.title='Document évaluation'}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -530,7 +540,7 @@
     <t>2</t>
   </si>
   <si>
-    <t>Other identifiers for the document</t>
+    <t>Première occurence : identifiant de la décision unique au sein de la MDPH ayant créé la décision (idDecision) Identifier.use = « usual ». Deuxième occurence :  identifiant technique national de la décision, généré par le SI-SDO (idNat_Decision) Identifier.use = « official »</t>
   </si>
   <si>
     <t>Other identifiers associated with the document, including version independent identifiers.</t>
@@ -616,7 +626,7 @@
 </t>
   </si>
   <si>
-    <t>Kind of document (LOINC if possible)</t>
+    <t>Si la ressource contient le document CDA portant les données de individu et la décision : Code =  « 57830-2 » de la nomenclature LOINC docTypeCodes, Display = Admission request Document. Si la ressource contient le document CDA portant l'évaluation : Code = « 51848-0 » de la nomenclature LOINC docTypeCodes, Display = « Evaluation note</t>
   </si>
   <si>
     <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
@@ -1092,6 +1102,211 @@
   </si>
   <si>
     <t>DocumentEntry.mimeType, DocumentEntry.languageCode, DocumentEntry.URI, DocumentEntry.size, DocumentEntry.hash, DocumentEntry.title, DocumentEntry.creationTime</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.attachment.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.attachment.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.attachment.contentType</t>
+  </si>
+  <si>
+    <t>Mime type of the content, with charset etc.</t>
+  </si>
+  <si>
+    <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
+  </si>
+  <si>
+    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
+  </si>
+  <si>
+    <t>Processors of the data need to be able to know how to interpret the data.</t>
+  </si>
+  <si>
+    <t>text/plain; charset=UTF-8, image/png</t>
+  </si>
+  <si>
+    <t>The mime type of an attachment. Any valid mime type is allowed.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/mimetypes|4.0.1</t>
+  </si>
+  <si>
+    <t>Attachment.contentType</t>
+  </si>
+  <si>
+    <t>./mediaType, ./charset</t>
+  </si>
+  <si>
+    <t>ED.2+ED.3/RP.2+RP.3. Note conversion may be needed if old style values are being used</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.attachment.language</t>
+  </si>
+  <si>
+    <t>Human language of the content (BCP-47)</t>
+  </si>
+  <si>
+    <t>The human language of the content. The value can be any valid value according to BCP 47.</t>
+  </si>
+  <si>
+    <t>Users need to be able to choose between the languages in a set of attachments.</t>
+  </si>
+  <si>
+    <t>en-AU</t>
+  </si>
+  <si>
+    <t>Attachment.language</t>
+  </si>
+  <si>
+    <t>./language</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.attachment.data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">base64Binary
+</t>
+  </si>
+  <si>
+    <t>Data inline, base64ed</t>
+  </si>
+  <si>
+    <t>The actual data of the attachment - a sequence of bytes, base64 encoded.</t>
+  </si>
+  <si>
+    <t>The base64-encoded data SHALL be expressed in the same character set as the base resource XML or JSON.</t>
+  </si>
+  <si>
+    <t>The data needs to able to be transmitted inline.</t>
+  </si>
+  <si>
+    <t>Attachment.data</t>
+  </si>
+  <si>
+    <t>./data</t>
+  </si>
+  <si>
+    <t>ED.5</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.attachment.url</t>
+  </si>
+  <si>
+    <t xml:space="preserve">url
+</t>
+  </si>
+  <si>
+    <t>Uri where the data can be found</t>
+  </si>
+  <si>
+    <t>A location where the data can be accessed.</t>
+  </si>
+  <si>
+    <t>If both data and url are provided, the url SHALL point to the same content as the data contains. Urls may be relative references or may reference transient locations such as a wrapping envelope using cid: though this has ramifications for using signatures. Relative URLs are interpreted relative to the service url, like a resource reference, rather than relative to the resource itself. If a URL is provided, it SHALL resolve to actual data.</t>
+  </si>
+  <si>
+    <t>The data needs to be transmitted by reference.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/logo-small.png</t>
+  </si>
+  <si>
+    <t>Attachment.url</t>
+  </si>
+  <si>
+    <t>./reference/literal</t>
+  </si>
+  <si>
+    <t>RP.1+RP.2 - if they refer to a URL (see v2.6)</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.attachment.size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">unsignedInt
+</t>
+  </si>
+  <si>
+    <t>Number of bytes of content (if url provided)</t>
+  </si>
+  <si>
+    <t>The number of bytes of data that make up this attachment (before base64 encoding, if that is done).</t>
+  </si>
+  <si>
+    <t>The number of bytes is redundant if the data is provided as a base64binary, but is useful if the data is provided as a url reference.</t>
+  </si>
+  <si>
+    <t>Representing the size allows applications to determine whether they should fetch the content automatically in advance, or refuse to fetch it at all.</t>
+  </si>
+  <si>
+    <t>Attachment.size</t>
+  </si>
+  <si>
+    <t>N/A (needs data type R3 proposal)</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.attachment.hash</t>
+  </si>
+  <si>
+    <t>Hash of the data (sha-1, base64ed)</t>
+  </si>
+  <si>
+    <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
+  </si>
+  <si>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+  </si>
+  <si>
+    <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>
+  </si>
+  <si>
+    <t>Attachment.hash</t>
+  </si>
+  <si>
+    <t>.integrityCheck[parent::ED/integrityCheckAlgorithm="SHA-1"]</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.attachment.title</t>
+  </si>
+  <si>
+    <t>Titre identifiant le contenu du document transporté. Le titre doit être soit 'Document Individu et décision', soit 'Document évaluation'</t>
+  </si>
+  <si>
+    <t>A label or set of text to display in place of the data.</t>
+  </si>
+  <si>
+    <t>Applications need a label to display to a human user in place of the actual data if the data cannot be rendered or perceived by the viewer.</t>
+  </si>
+  <si>
+    <t>Official Corporate Logo</t>
+  </si>
+  <si>
+    <t>Attachment.title</t>
+  </si>
+  <si>
+    <t>./title/data</t>
+  </si>
+  <si>
+    <t>DocumentReference.content.attachment.creation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dateTime
+</t>
+  </si>
+  <si>
+    <t>Date attachment was first created</t>
+  </si>
+  <si>
+    <t>The date that the attachment was first created.</t>
+  </si>
+  <si>
+    <t>This is often tracked as an integrity issue for use of the attachment.</t>
+  </si>
+  <si>
+    <t>Attachment.creation</t>
   </si>
   <si>
     <t>DocumentReference.content.format</t>
@@ -1461,10 +1676,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -1473,7 +1688,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -1571,21 +1786,21 @@
       <c r="A12" t="s" s="2">
         <v>20</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>21</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>23</v>
       </c>
+      <c r="B14" s="2"/>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
@@ -1625,6 +1840,14 @@
       </c>
       <c r="B19" t="s" s="2">
         <v>33</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -1634,7 +1857,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ46"/>
+  <dimension ref="A1:AQ56"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1643,8 +1866,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="46.23828125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="46.23828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
@@ -1662,7 +1885,7 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="9.953125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
@@ -1689,5672 +1912,6914 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AN1" t="s" s="1">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AO1" t="s" s="1">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AP1" t="s" s="1">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AQ1" t="s" s="1">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E2" s="2"/>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q2" s="2"/>
       <c r="R2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AG2" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AJ2" t="s" s="2">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="AK2" t="s" s="2">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="AL2" t="s" s="2">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="AN2" t="s" s="2">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="AO2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ2" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="N3" t="s" s="2">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2"/>
       <c r="P3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q3" s="2"/>
       <c r="R3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AN3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ3" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J4" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
       <c r="P4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q4" s="2"/>
       <c r="R4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="AG4" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AN4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ4" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I5" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q5" s="2"/>
       <c r="R5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AN5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q6" s="2"/>
       <c r="R6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y6" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AN6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ6" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q7" s="2"/>
       <c r="R7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="AG7" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AN7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ7" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AN8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ8" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q9" s="2"/>
       <c r="R9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AN9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ9" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q10" s="2"/>
       <c r="R10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AN10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ10" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="P11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="2"/>
       <c r="R11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI11" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK11" t="s" s="2">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="AM11" t="s" s="2">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="AN11" t="s" s="2">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="AO11" t="s" s="2">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="AP11" t="s" s="2">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AQ11" t="s" s="2">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="2"/>
       <c r="R12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF12" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="AG12" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH12" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI12" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK12" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="AL12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM12" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="AN12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO12" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AG12" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI12" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ12" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK12" t="s" s="2">
-        <v>157</v>
-      </c>
-      <c r="AL12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>168</v>
-      </c>
-      <c r="AN12" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO12" t="s" s="2">
-        <v>161</v>
-      </c>
       <c r="AP12" t="s" s="2">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="AN13" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="2"/>
       <c r="R14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="AM14" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="AN14" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO14" t="s" s="2">
         <v>183</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>180</v>
-      </c>
       <c r="AP14" t="s" s="2">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="AQ14" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="2"/>
       <c r="R15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="AA15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AG15" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q16" s="2"/>
       <c r="R16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="AG16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AM16" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="AN16" t="s" s="2">
+        <v>219</v>
+      </c>
+      <c r="AO16" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>102</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>214</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AN16" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AO16" t="s" s="2">
-        <v>203</v>
-      </c>
       <c r="AP16" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O17" s="2"/>
       <c r="P17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q17" s="2"/>
       <c r="R17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="AG17" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="O18" s="2"/>
       <c r="P18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="AG18" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH18" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AN18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="2"/>
       <c r="R19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AG19" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q20" s="2"/>
       <c r="R20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AG20" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI20" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>263</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q21" s="2"/>
       <c r="R21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ21" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q22" s="2"/>
       <c r="R22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ23" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q24" s="2"/>
       <c r="R24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I25" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q25" s="2"/>
       <c r="R25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ25" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q26" s="2"/>
       <c r="R26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="AA26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q27" s="2"/>
       <c r="R27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>307</v>
+        <v>310</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="P28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q28" s="2"/>
       <c r="R28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="AG28" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH28" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO28" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>315</v>
+        <v>318</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="P29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="AA29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="AO29" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ30" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH31" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q32" s="2"/>
       <c r="R32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ32" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="O33" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="P33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AG33" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G34" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AH34" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="AO34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>346</v>
+        <v>349</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>348</v>
+        <v>283</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>349</v>
+        <v>284</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>351</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="N35" s="2"/>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q35" s="2"/>
       <c r="R35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>116</v>
+        <v>79</v>
       </c>
       <c r="Y35" t="s" s="2">
-        <v>352</v>
+        <v>79</v>
       </c>
       <c r="Z35" t="s" s="2">
-        <v>353</v>
+        <v>79</v>
       </c>
       <c r="AA35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>347</v>
+        <v>286</v>
       </c>
       <c r="AG35" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>101</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL35" t="s" s="2">
-        <v>354</v>
+        <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>333</v>
+        <v>113</v>
       </c>
       <c r="AN35" t="s" s="2">
-        <v>355</v>
+        <v>79</v>
       </c>
       <c r="AO35" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP35" t="s" s="2">
-        <v>356</v>
+        <v>79</v>
       </c>
       <c r="AQ35" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>77</v>
+        <v>139</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="H36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>359</v>
+        <v>141</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>360</v>
+        <v>288</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>361</v>
+        <v>143</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q36" s="2"/>
       <c r="R36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="AD36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>358</v>
+        <v>289</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>102</v>
+        <v>148</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>362</v>
+        <v>106</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ36" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>363</v>
+        <v>352</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>280</v>
+        <v>115</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
+        <v>353</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>282</v>
-      </c>
-      <c r="N37" s="2"/>
-      <c r="O37" s="2"/>
+        <v>354</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>356</v>
+      </c>
       <c r="P37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q37" s="2"/>
       <c r="R37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>77</v>
+        <v>357</v>
       </c>
       <c r="U37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>77</v>
+        <v>178</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>77</v>
+        <v>358</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>77</v>
+        <v>359</v>
       </c>
       <c r="AA37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>283</v>
+        <v>360</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>77</v>
+        <v>104</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>77</v>
+        <v>105</v>
       </c>
       <c r="AK37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>110</v>
+        <v>361</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>77</v>
+        <v>362</v>
       </c>
       <c r="AQ37" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>136</v>
+        <v>79</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>137</v>
+        <v>115</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>138</v>
+        <v>364</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>285</v>
+        <v>365</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="O38" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O38" t="s" s="2">
+        <v>366</v>
+      </c>
       <c r="P38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q38" s="2"/>
       <c r="R38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>77</v>
+        <v>367</v>
       </c>
       <c r="U38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>77</v>
+        <v>120</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>141</v>
+        <v>79</v>
       </c>
       <c r="AC38" t="s" s="2">
-        <v>142</v>
+        <v>79</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>143</v>
+        <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>286</v>
+        <v>368</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>103</v>
+        <v>369</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
-        <v>288</v>
+        <v>79</v>
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>137</v>
+        <v>371</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>289</v>
+        <v>372</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>290</v>
+        <v>373</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>140</v>
+        <v>374</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>149</v>
+        <v>375</v>
       </c>
       <c r="P39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>291</v>
+        <v>376</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH39" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AI39" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>103</v>
+        <v>377</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>77</v>
+        <v>378</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>366</v>
+        <v>379</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>367</v>
+        <v>380</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>368</v>
+        <v>381</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>369</v>
+        <v>382</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="O40" s="2"/>
+        <v>383</v>
+      </c>
+      <c r="O40" t="s" s="2">
+        <v>384</v>
+      </c>
       <c r="P40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q40" s="2"/>
       <c r="R40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>77</v>
+        <v>385</v>
       </c>
       <c r="U40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>366</v>
+        <v>386</v>
       </c>
       <c r="AG40" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AI40" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>370</v>
+        <v>79</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>371</v>
+        <v>79</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>372</v>
+        <v>387</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>373</v>
+        <v>79</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>77</v>
+        <v>388</v>
       </c>
       <c r="AQ40" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>374</v>
+        <v>389</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>193</v>
+        <v>390</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>375</v>
+        <v>391</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>376</v>
+        <v>392</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>377</v>
-      </c>
-      <c r="O41" s="2"/>
+        <v>393</v>
+      </c>
+      <c r="O41" t="s" s="2">
+        <v>394</v>
+      </c>
       <c r="P41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X41" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="Y41" t="s" s="2">
-        <v>378</v>
+        <v>79</v>
       </c>
       <c r="Z41" t="s" s="2">
-        <v>379</v>
+        <v>79</v>
       </c>
       <c r="AA41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>374</v>
+        <v>395</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AI41" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>380</v>
+        <v>79</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>381</v>
+        <v>396</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AO41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>382</v>
+        <v>79</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>383</v>
+        <v>397</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G42" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>385</v>
+        <v>398</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>386</v>
+        <v>399</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>387</v>
-      </c>
-      <c r="O42" s="2"/>
+        <v>400</v>
+      </c>
+      <c r="O42" t="s" s="2">
+        <v>401</v>
+      </c>
       <c r="P42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q42" s="2"/>
       <c r="R42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>383</v>
+        <v>402</v>
       </c>
       <c r="AG42" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH42" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>388</v>
+        <v>105</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>389</v>
+        <v>79</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>391</v>
+        <v>79</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>392</v>
+        <v>79</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>393</v>
+        <v>79</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>394</v>
+        <v>404</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>193</v>
+        <v>283</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>395</v>
+        <v>405</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>396</v>
+        <v>406</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="O43" s="2"/>
+        <v>355</v>
+      </c>
+      <c r="O43" t="s" s="2">
+        <v>407</v>
+      </c>
       <c r="P43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>77</v>
+        <v>408</v>
       </c>
       <c r="U43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="Y43" t="s" s="2">
-        <v>398</v>
+        <v>79</v>
       </c>
       <c r="Z43" t="s" s="2">
-        <v>399</v>
+        <v>79</v>
       </c>
       <c r="AA43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>394</v>
+        <v>409</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>402</v>
+        <v>79</v>
       </c>
       <c r="AO43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP43" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AQ43" t="s" s="2">
-        <v>403</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>404</v>
+        <v>411</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>193</v>
+        <v>412</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>405</v>
+        <v>413</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="N44" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
-        <v>408</v>
+        <v>415</v>
       </c>
       <c r="P44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q44" s="2"/>
       <c r="R44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>211</v>
+        <v>79</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>409</v>
+        <v>79</v>
       </c>
       <c r="Z44" t="s" s="2">
-        <v>410</v>
+        <v>79</v>
       </c>
       <c r="AA44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ44" t="s" s="2">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="AK44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>400</v>
+        <v>79</v>
       </c>
       <c r="AO44" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP44" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>411</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G45" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>415</v>
+        <v>420</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>223</v>
+        <v>421</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q45" s="2"/>
       <c r="R45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>77</v>
+        <v>119</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>77</v>
+        <v>422</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>77</v>
+        <v>423</v>
       </c>
       <c r="AA45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>412</v>
+        <v>417</v>
       </c>
       <c r="AG45" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH45" t="s" s="2">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>226</v>
+        <v>424</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>227</v>
+        <v>336</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>228</v>
+        <v>425</v>
       </c>
       <c r="AO45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>77</v>
+        <v>426</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>416</v>
+        <v>427</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="H46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>418</v>
+        <v>275</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>419</v>
+        <v>429</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>420</v>
+        <v>430</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>421</v>
+        <v>431</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Q46" s="2"/>
       <c r="R46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="S46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="T46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="U46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="V46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="Z46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AA46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>417</v>
+        <v>428</v>
       </c>
       <c r="AG46" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>224</v>
+        <v>105</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>423</v>
+        <v>432</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AO46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AP46" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AQ46" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="B47" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="C47" s="2"/>
+      <c r="D47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K47" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="L47" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="M47" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="N47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q47" s="2"/>
+      <c r="R47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ47" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K48" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N48" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q48" s="2"/>
+      <c r="R48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC48" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE48" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF48" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM48" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ48" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="B49" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" t="s" s="2">
+        <v>291</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J49" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K49" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="N49" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O49" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q49" s="2"/>
+      <c r="R49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ49" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="B50" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K50" t="s" s="2">
+        <v>437</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>438</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>439</v>
+      </c>
+      <c r="N50" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O50" s="2"/>
+      <c r="P50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q50" s="2"/>
+      <c r="R50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF50" t="s" s="2">
+        <v>436</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>440</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>441</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AP50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ50" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="B51" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K51" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L51" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="O51" s="2"/>
+      <c r="P51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q51" s="2"/>
+      <c r="R51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X51" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y51" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="Z51" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AA51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF51" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AG51" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH51" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI51" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL51" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AM51" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AN51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP51" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AQ51" t="s" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="B52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J52" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K52" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="L52" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="M52" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="N52" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="O52" s="2"/>
+      <c r="P52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q52" s="2"/>
+      <c r="R52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="B53" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K53" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L53" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="M53" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="N53" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="O53" s="2"/>
+      <c r="P53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q53" s="2"/>
+      <c r="R53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X53" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y53" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="Z53" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AA53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF53" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG53" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH53" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI53" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ53" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL53" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AM53" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AN53" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AO53" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP53" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AQ53" t="s" s="2">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="B54" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="C54" s="2"/>
+      <c r="D54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K54" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L54" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="N54" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="O54" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="P54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q54" s="2"/>
+      <c r="R54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X54" t="s" s="2">
+        <v>214</v>
+      </c>
+      <c r="Y54" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="Z54" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="AN54" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AO54" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K55" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="L55" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="M55" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="N55" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="O55" s="2"/>
+      <c r="P55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q55" s="2"/>
+      <c r="R55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF55" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AM55" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="AN55" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="AO55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP55" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ55" t="s" s="2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="B56" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K56" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="L56" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="M56" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="N56" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="O56" s="2"/>
+      <c r="P56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q56" s="2"/>
+      <c r="R56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF56" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>494</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ56" t="s" s="2">
+        <v>495</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
+++ b/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2232" uniqueCount="496">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="588">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-2</t>
+    <t>4.0.2-ballot-3</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>active</t>
+    <t>draft</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-19T09:51:35+02:00</t>
+    <t>2024-04-18T09:33:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -66,7 +66,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}regle-NomPieceJointe:Le nom de la pièce jointe doit être  : "Document Individu et décision" ou "Document évaluation" {content.attachment.title='Document Individu et décision' or content.attachment.title='Document évaluation'}</t>
+dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}regle-NomPieceJointe-type:La combinaison entre le code du documentRefenrece et le nom de la pièce jointe doit être  : titre ="Document Individu et décision" et code = "57830-2"ou titre ="Document évaluation" et code = "51848-0" {(type.coding.where(code='57830-2').exists() implies (content.attachment.where(title='Document Individu et décision')).exists()) and (type.coding.where(code='51848-0').exists() implies (content.attachment.where(title='Document évaluation')).exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -540,12 +540,16 @@
     <t>2</t>
   </si>
   <si>
-    <t>Première occurence : identifiant de la décision unique au sein de la MDPH ayant créé la décision (idDecision) Identifier.use = « usual ». Deuxième occurence :  identifiant technique national de la décision, généré par le SI-SDO (idNat_Decision) Identifier.use = « official »</t>
+    <t>identifiants métier (idDecision) et technique (idNat_decision) de la décision d'orientation</t>
   </si>
   <si>
     <t>Other identifiers associated with the document, including version independent identifiers.</t>
   </si>
   <si>
+    <t xml:space="preserve">value:use}
+</t>
+  </si>
+  <si>
     <t>.id / .setId</t>
   </si>
   <si>
@@ -553,6 +557,277 @@
   </si>
   <si>
     <t>DocumentEntry.entryUUID</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idDecision</t>
+  </si>
+  <si>
+    <t>idDecision</t>
+  </si>
+  <si>
+    <t>Other identifiers for the document</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idDecision.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idDecision.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idDecision.use</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.use</t>
+  </si>
+  <si>
+    <t>usual | official | temp | secondary | old (If known)</t>
+  </si>
+  <si>
+    <t>The purpose of this identifier.</t>
+  </si>
+  <si>
+    <t>Applications can assume that an identifier is permanent unless it explicitly says that it is temporary.</t>
+  </si>
+  <si>
+    <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
+  </si>
+  <si>
+    <t>usual</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Identifies the purpose for this identifier, if known .</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.0.1</t>
+  </si>
+  <si>
+    <t>Identifier.use</t>
+  </si>
+  <si>
+    <t>Role.code or implied by context</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idDecision.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>Description of identifier</t>
+  </si>
+  <si>
+    <t>A coded type for the identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>This element deals only with general categories of identifiers.  It SHOULD not be used for codes that correspond 1..1 with the Identifier.system. Some identifiers may fall into multiple categories due to common usage.   Where the system is known, a type is unnecessary because the type is always part of the system definition. However systems often need to handle identifiers where the system is not known. There is not a 1:1 relationship between type and system, since many different systems have the same type.</t>
+  </si>
+  <si>
+    <t>Allows users to make use of identifiers when the identifier system is not known.</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>A coded type for an identifier that can be used to determine which identifier to use for a specific purpose.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/identifier-type</t>
+  </si>
+  <si>
+    <t>Identifier.type</t>
+  </si>
+  <si>
+    <t>CX.5</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idDecision.system</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.system</t>
+  </si>
+  <si>
+    <t>The namespace for the identifier value</t>
+  </si>
+  <si>
+    <t>Establishes the namespace for the value - that is, a URL that describes a set values that are unique.</t>
+  </si>
+  <si>
+    <t>Identifier.system is always case sensitive.</t>
+  </si>
+  <si>
+    <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
+  </si>
+  <si>
+    <t>http://www.acme.com/identifiers/patient</t>
+  </si>
+  <si>
+    <t>Identifier.system</t>
+  </si>
+  <si>
+    <t>II.root or Role.id.root</t>
+  </si>
+  <si>
+    <t>CX.4 / EI-2-4</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idDecision.value</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.value</t>
+  </si>
+  <si>
+    <t>identifiant de la décision unique au sein de la MDPH ayant créé la décision (idDecision)</t>
+  </si>
+  <si>
+    <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
+  </si>
+  <si>
+    <t>If the value is a full URI, then the system SHALL be urn:ietf:rfc:3986.  The value's primary purpose is computational mapping.  As a result, it may be normalized for comparison purposes (e.g. removing non-significant whitespace, dashes, etc.)  A value formatted for human display can be conveyed using the [Rendered Value extension](http://hl7.org/fhir/R4/extension-rendered-value.html). Identifier.value is to be treated as case sensitive unless knowledge of the Identifier.system allows the processer to be confident that non-case-sensitive processing is safe.</t>
+  </si>
+  <si>
+    <t>123456</t>
+  </si>
+  <si>
+    <t>Identifier.value</t>
+  </si>
+  <si>
+    <t>II.extension or II.root if system indicates OID or GUID (Or Role.id.extension or root)</t>
+  </si>
+  <si>
+    <t>CX.1 / EI.1</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idDecision.period</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.period</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Period
+</t>
+  </si>
+  <si>
+    <t>Time period when id is/was valid for use</t>
+  </si>
+  <si>
+    <t>Time period during which identifier is/was valid for use.</t>
+  </si>
+  <si>
+    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
+Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
+  </si>
+  <si>
+    <t>Identifier.period</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
+  </si>
+  <si>
+    <t>Role.effectiveTime or implied by context</t>
+  </si>
+  <si>
+    <t>CX.7 + CX.8</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idDecision.assigner</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.assigner</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(Organization)
+</t>
+  </si>
+  <si>
+    <t>Organization that issued id (may be just text)</t>
+  </si>
+  <si>
+    <t>Organization that issued/manages the identifier.</t>
+  </si>
+  <si>
+    <t>The Identifier.assigner may omit the .reference element and only contain a .display element reflecting the name or other textual information about the assigning organization.</t>
+  </si>
+  <si>
+    <t>Identifier.assigner</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
+  </si>
+  <si>
+    <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
+  </si>
+  <si>
+    <t>CX.4 / (CX.4,CX.9,CX.10)</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idNat_Decision</t>
+  </si>
+  <si>
+    <t>idNat_Decision</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idNat_Decision.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idNat_Decision.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idNat_Decision.use</t>
+  </si>
+  <si>
+    <t>official</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idNat_Decision.type</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idNat_Decision.system</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idNat_Decision.value</t>
+  </si>
+  <si>
+    <t>identifiant technique national de la décision, généré par le SI-SDO (idNat_Decision)</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idNat_Decision.period</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idNat_Decision.assigner</t>
   </si>
   <si>
     <t>DocumentReference.status</t>
@@ -568,9 +843,6 @@
 This element is labeled as a modifier because the status contains the codes that mark the document or reference as not currently valid.</t>
   </si>
   <si>
-    <t>required</t>
-  </si>
-  <si>
     <t>The status of the document reference.</t>
   </si>
   <si>
@@ -622,11 +894,7 @@
     <t>DocumentReference.type</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Si la ressource contient le document CDA portant les données de individu et la décision : Code =  « 57830-2 » de la nomenclature LOINC docTypeCodes, Display = Admission request Document. Si la ressource contient le document CDA portant l'évaluation : Code = « 51848-0 » de la nomenclature LOINC docTypeCodes, Display = « Evaluation note</t>
+    <t>Code identifiant le type de document CDA véhiculé dans la ressource (Individu et Décision ou Evaluation)</t>
   </si>
   <si>
     <t>Specifies the particular kind of document referenced  (e.g. History and Physical, Discharge Summary, Progress Note). This usually equates to the purpose of making the document referenced.</t>
@@ -635,10 +903,7 @@
     <t>Key metadata element describing the document that describes he exact type of document. Helps humans to assess whether the document is of interest when viewing a list of documents.</t>
   </si>
   <si>
-    <t>Precise type of clinical document.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/c80-doc-typecodes</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/sdo/ValueSet/type-document-reference-esms-valueset</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -663,6 +928,64 @@
     <t>DocumentEntry.type</t>
   </si>
   <si>
+    <t>DocumentReference.type.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>DocumentReference.type.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
     <t>DocumentReference.category</t>
   </si>
   <si>
@@ -719,10 +1042,6 @@
     <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -847,10 +1166,6 @@
     <t>DocumentReference.custodian</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
-</t>
-  </si>
-  <si>
     <t>Organization which maintains the document</t>
   </si>
   <si>
@@ -894,26 +1209,7 @@
     <t>DocumentReference.relatesTo.id</t>
   </si>
   <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
     <t>DocumentReference.relatesTo.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DocumentReference.relatesTo.modifierExtension</t>
@@ -1020,9 +1316,6 @@
   </si>
   <si>
     <t>Use of the Health Care Privacy/Security Classification (HCS) system of security-tag use is recommended.</t>
-  </si>
-  <si>
-    <t>extensible</t>
   </si>
   <si>
     <t>Security Labels from the Healthcare Privacy and Security Classification System.</t>
@@ -1272,7 +1565,7 @@
     <t>DocumentReference.content.attachment.title</t>
   </si>
   <si>
-    <t>Titre identifiant le contenu du document transporté. Le titre doit être soit 'Document Individu et décision', soit 'Document évaluation'</t>
+    <t>Titre identifiant le contenu du document transporté.</t>
   </si>
   <si>
     <t>A label or set of text to display in place of the data.</t>
@@ -1312,10 +1605,6 @@
     <t>DocumentReference.content.format</t>
   </si>
   <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
     <t>Format/content rules for the document</t>
   </si>
   <si>
@@ -1422,22 +1711,10 @@
     <t>DocumentReference.context.period</t>
   </si>
   <si>
-    <t xml:space="preserve">Period
-</t>
-  </si>
-  <si>
     <t>Time of service that is being documented</t>
   </si>
   <si>
     <t>The time period over which the service that is described by the document was provided.</t>
-  </si>
-  <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Composition.event.period</t>
@@ -1857,7 +2134,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AQ56"/>
+  <dimension ref="A1:AQ78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1866,9 +2143,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.484375" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.66015625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="3" max="3" width="14.65234375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1885,13 +2162,13 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="35.69140625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="74.265625" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.0" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="84.7890625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
@@ -3289,7 +3566,7 @@
         <v>168</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>81</v>
+        <v>168</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3346,16 +3623,14 @@
         <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC12" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>167</v>
@@ -3379,7 +3654,7 @@
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
@@ -3388,20 +3663,22 @@
         <v>164</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
       </c>
@@ -3416,23 +3693,21 @@
         <v>79</v>
       </c>
       <c r="I13" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J13" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>115</v>
+        <v>155</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>176</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>177</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
         <v>79</v>
@@ -3457,13 +3732,13 @@
         <v>79</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>179</v>
+        <v>79</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>180</v>
+        <v>79</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>79</v>
@@ -3481,13 +3756,13 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>104</v>
@@ -3496,33 +3771,33 @@
         <v>105</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>181</v>
+        <v>160</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>183</v>
+        <v>164</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>185</v>
+        <v>174</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3542,20 +3817,18 @@
         <v>79</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N14" s="2"/>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
         <v>79</v>
@@ -3580,13 +3853,13 @@
         <v>79</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>190</v>
+        <v>79</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>191</v>
+        <v>79</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>79</v>
@@ -3604,7 +3877,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3613,28 +3886,28 @@
         <v>92</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>192</v>
+        <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO14" t="s" s="2">
-        <v>183</v>
+        <v>79</v>
       </c>
       <c r="AP14" t="s" s="2">
-        <v>194</v>
+        <v>79</v>
       </c>
       <c r="AQ14" t="s" s="2">
         <v>79</v>
@@ -3642,21 +3915,21 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>79</v>
@@ -3665,19 +3938,19 @@
         <v>79</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>197</v>
+        <v>141</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>199</v>
+        <v>143</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3703,106 +3976,108 @@
         <v>79</v>
       </c>
       <c r="X15" t="s" s="2">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="Y15" t="s" s="2">
-        <v>200</v>
+        <v>79</v>
       </c>
       <c r="Z15" t="s" s="2">
-        <v>201</v>
+        <v>79</v>
       </c>
       <c r="AA15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH15" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>202</v>
+        <v>79</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>203</v>
+        <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>204</v>
+        <v>106</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AP15" t="s" s="2">
-        <v>207</v>
+        <v>79</v>
       </c>
       <c r="AQ15" t="s" s="2">
-        <v>208</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I16" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J16" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>196</v>
+        <v>115</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>211</v>
+        <v>190</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>212</v>
+        <v>191</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>213</v>
-      </c>
-      <c r="O16" s="2"/>
+        <v>192</v>
+      </c>
+      <c r="O16" t="s" s="2">
+        <v>193</v>
+      </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
       </c>
@@ -3811,7 +4086,7 @@
         <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>194</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>79</v>
@@ -3826,13 +4101,13 @@
         <v>79</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>79</v>
@@ -3850,13 +4125,13 @@
         <v>79</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>209</v>
+        <v>198</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>104</v>
@@ -3868,30 +4143,30 @@
         <v>79</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>217</v>
+        <v>79</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>218</v>
+        <v>199</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>219</v>
+        <v>79</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>206</v>
+        <v>79</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>220</v>
+        <v>106</v>
       </c>
       <c r="AQ16" t="s" s="2">
-        <v>221</v>
+        <v>79</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>222</v>
+        <v>200</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3914,18 +4189,20 @@
         <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="N17" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O17" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="O17" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
       </c>
@@ -3949,13 +4226,13 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>207</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>208</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>79</v>
@@ -3973,7 +4250,7 @@
         <v>79</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>80</v>
@@ -3985,40 +4262,40 @@
         <v>104</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>228</v>
+        <v>79</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="AN17" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="AO17" t="s" s="2">
-        <v>232</v>
+        <v>79</v>
       </c>
       <c r="AP17" t="s" s="2">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="AQ17" t="s" s="2">
-        <v>234</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>235</v>
+        <v>213</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
-        <v>236</v>
+        <v>79</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" t="s" s="2">
@@ -4037,18 +4314,20 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>237</v>
+        <v>108</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>238</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>239</v>
+        <v>215</v>
       </c>
       <c r="N18" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="O18" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O18" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
       </c>
@@ -4060,7 +4339,7 @@
         <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="U18" t="s" s="2">
         <v>79</v>
@@ -4096,7 +4375,7 @@
         <v>79</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -4111,22 +4390,22 @@
         <v>105</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>241</v>
+        <v>79</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>242</v>
+        <v>79</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="AN18" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO18" t="s" s="2">
-        <v>244</v>
+        <v>79</v>
       </c>
       <c r="AP18" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>79</v>
@@ -4134,10 +4413,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>245</v>
+        <v>222</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>245</v>
+        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4145,10 +4424,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>79</v>
@@ -4160,16 +4439,16 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>246</v>
+        <v>180</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4183,7 +4462,7 @@
         <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="U19" t="s" s="2">
         <v>79</v>
@@ -4219,48 +4498,48 @@
         <v>79</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>245</v>
+        <v>228</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>251</v>
+        <v>79</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>253</v>
+        <v>79</v>
       </c>
       <c r="AO19" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="AQ19" t="s" s="2">
-        <v>255</v>
+        <v>79</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>256</v>
+        <v>231</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>256</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4280,19 +4559,19 @@
         <v>79</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
@@ -4342,7 +4621,7 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>256</v>
+        <v>237</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4354,36 +4633,36 @@
         <v>104</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>250</v>
+        <v>79</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>261</v>
+        <v>79</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>262</v>
+        <v>239</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>263</v>
+        <v>79</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>264</v>
+        <v>79</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>265</v>
+        <v>240</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>266</v>
+        <v>79</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>267</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>267</v>
+        <v>242</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4403,19 +4682,19 @@
         <v>79</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>268</v>
+        <v>243</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>269</v>
+        <v>244</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>270</v>
+        <v>245</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4465,7 +4744,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>267</v>
+        <v>247</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4477,25 +4756,25 @@
         <v>104</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>227</v>
+        <v>248</v>
       </c>
       <c r="AK21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM21" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AN21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP21" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AL21" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AM21" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="AN21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO21" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP21" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>79</v>
@@ -4503,12 +4782,14 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="C22" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>252</v>
+      </c>
       <c r="D22" t="s" s="2">
         <v>79</v>
       </c>
@@ -4517,7 +4798,7 @@
         <v>80</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H22" t="s" s="2">
         <v>79</v>
@@ -4529,17 +4810,15 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>275</v>
+        <v>155</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>276</v>
+        <v>177</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N22" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="N22" s="2"/>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
         <v>79</v>
@@ -4588,7 +4867,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>274</v>
+        <v>167</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4603,33 +4882,33 @@
         <v>105</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>79</v>
+        <v>160</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>279</v>
+        <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>280</v>
+        <v>172</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>79</v>
+        <v>164</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>281</v>
+        <v>174</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>282</v>
+        <v>179</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4652,13 +4931,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>283</v>
+        <v>180</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>284</v>
+        <v>181</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>285</v>
+        <v>182</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4709,7 +4988,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>286</v>
+        <v>183</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4747,10 +5026,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>287</v>
+        <v>185</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4779,7 +5058,7 @@
         <v>141</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>288</v>
+        <v>186</v>
       </c>
       <c r="N24" t="s" s="2">
         <v>143</v>
@@ -4832,7 +5111,7 @@
         <v>146</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>289</v>
+        <v>187</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4870,21 +5149,21 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>290</v>
+        <v>255</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>290</v>
+        <v>189</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>79</v>
@@ -4896,19 +5175,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>292</v>
+        <v>190</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>293</v>
+        <v>191</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>143</v>
+        <v>192</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -4918,7 +5197,7 @@
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>256</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>79</v>
@@ -4933,13 +5212,13 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>196</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>197</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>79</v>
@@ -4957,19 +5236,19 @@
         <v>79</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>294</v>
+        <v>198</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>79</v>
@@ -4978,16 +5257,16 @@
         <v>79</v>
       </c>
       <c r="AM25" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AN25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP25" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="AN25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP25" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>79</v>
@@ -4995,10 +5274,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>295</v>
+        <v>257</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>295</v>
+        <v>201</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5006,7 +5285,7 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G26" t="s" s="2">
         <v>92</v>
@@ -5021,18 +5300,20 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>296</v>
+        <v>203</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>297</v>
+        <v>204</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="O26" s="2"/>
+        <v>205</v>
+      </c>
+      <c r="O26" t="s" s="2">
+        <v>206</v>
+      </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
       </c>
@@ -5056,13 +5337,13 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>299</v>
+        <v>208</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>300</v>
+        <v>209</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>79</v>
@@ -5080,10 +5361,10 @@
         <v>79</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>295</v>
+        <v>210</v>
       </c>
       <c r="AG26" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH26" t="s" s="2">
         <v>92</v>
@@ -5098,10 +5379,10 @@
         <v>79</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>301</v>
+        <v>79</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>302</v>
+        <v>199</v>
       </c>
       <c r="AN26" t="s" s="2">
         <v>79</v>
@@ -5110,18 +5391,18 @@
         <v>79</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>79</v>
+        <v>211</v>
       </c>
       <c r="AQ26" t="s" s="2">
-        <v>303</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>304</v>
+        <v>213</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5129,7 +5410,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>92</v>
@@ -5144,18 +5425,20 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>305</v>
+        <v>108</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>306</v>
+        <v>214</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>307</v>
+        <v>215</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O27" s="2"/>
+        <v>216</v>
+      </c>
+      <c r="O27" t="s" s="2">
+        <v>217</v>
+      </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
       </c>
@@ -5167,7 +5450,7 @@
         <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
-        <v>79</v>
+        <v>218</v>
       </c>
       <c r="U27" t="s" s="2">
         <v>79</v>
@@ -5203,10 +5486,10 @@
         <v>79</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>304</v>
+        <v>219</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>92</v>
@@ -5215,16 +5498,16 @@
         <v>104</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>308</v>
+        <v>79</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>309</v>
+        <v>220</v>
       </c>
       <c r="AN27" t="s" s="2">
         <v>79</v>
@@ -5233,18 +5516,18 @@
         <v>79</v>
       </c>
       <c r="AP27" t="s" s="2">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AQ27" t="s" s="2">
-        <v>310</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>311</v>
+        <v>259</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>311</v>
+        <v>223</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5252,7 +5535,7 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>92</v>
@@ -5267,20 +5550,18 @@
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>283</v>
+        <v>180</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>312</v>
+        <v>260</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>313</v>
+        <v>225</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>314</v>
-      </c>
-      <c r="O28" t="s" s="2">
-        <v>315</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
         <v>79</v>
       </c>
@@ -5292,7 +5573,7 @@
         <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
-        <v>79</v>
+        <v>227</v>
       </c>
       <c r="U28" t="s" s="2">
         <v>79</v>
@@ -5328,7 +5609,7 @@
         <v>79</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>311</v>
+        <v>228</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5349,7 +5630,7 @@
         <v>79</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>316</v>
+        <v>229</v>
       </c>
       <c r="AN28" t="s" s="2">
         <v>79</v>
@@ -5358,18 +5639,18 @@
         <v>79</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>317</v>
+        <v>230</v>
       </c>
       <c r="AQ28" t="s" s="2">
-        <v>318</v>
+        <v>79</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>319</v>
+        <v>232</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5380,7 +5661,7 @@
         <v>80</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H29" t="s" s="2">
         <v>79</v>
@@ -5392,20 +5673,18 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>196</v>
+        <v>233</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>320</v>
+        <v>234</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>321</v>
+        <v>235</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="O29" t="s" s="2">
-        <v>323</v>
-      </c>
+        <v>236</v>
+      </c>
+      <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
       </c>
@@ -5429,13 +5708,13 @@
         <v>79</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>324</v>
+        <v>79</v>
       </c>
       <c r="Y29" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="Z29" t="s" s="2">
-        <v>326</v>
+        <v>79</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>79</v>
@@ -5453,48 +5732,48 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>105</v>
+        <v>238</v>
       </c>
       <c r="AK29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>327</v>
+        <v>79</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>328</v>
+        <v>239</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>329</v>
+        <v>79</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP29" t="s" s="2">
-        <v>330</v>
+        <v>240</v>
       </c>
       <c r="AQ29" t="s" s="2">
-        <v>331</v>
+        <v>79</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>332</v>
+        <v>242</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5502,7 +5781,7 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>92</v>
@@ -5517,15 +5796,17 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>333</v>
+        <v>244</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>245</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>246</v>
+      </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
         <v>79</v>
@@ -5574,28 +5855,28 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>332</v>
+        <v>247</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>335</v>
+        <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>336</v>
+        <v>249</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5604,7 +5885,7 @@
         <v>79</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>79</v>
@@ -5612,10 +5893,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5623,7 +5904,7 @@
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>92</v>
@@ -5632,21 +5913,23 @@
         <v>79</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>283</v>
+        <v>115</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>284</v>
+        <v>264</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N31" s="2"/>
+        <v>265</v>
+      </c>
+      <c r="N31" t="s" s="2">
+        <v>266</v>
+      </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
         <v>79</v>
@@ -5671,13 +5954,13 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>79</v>
+        <v>267</v>
       </c>
       <c r="Z31" t="s" s="2">
-        <v>79</v>
+        <v>268</v>
       </c>
       <c r="AA31" t="s" s="2">
         <v>79</v>
@@ -5695,59 +5978,59 @@
         <v>79</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>105</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AL31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>113</v>
+        <v>270</v>
       </c>
       <c r="AN31" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO31" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
       <c r="AQ31" t="s" s="2">
-        <v>79</v>
+        <v>273</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>79</v>
@@ -5756,19 +6039,19 @@
         <v>79</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>141</v>
+        <v>275</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>288</v>
+        <v>276</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>143</v>
+        <v>277</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -5794,61 +6077,61 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>79</v>
+        <v>278</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>279</v>
       </c>
       <c r="AA32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>289</v>
+        <v>274</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>79</v>
+        <v>280</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>106</v>
+        <v>281</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO32" t="s" s="2">
-        <v>79</v>
+        <v>271</v>
       </c>
       <c r="AP32" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>79</v>
@@ -5856,46 +6139,44 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>339</v>
+        <v>283</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H33" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J33" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>140</v>
+        <v>202</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O33" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>286</v>
+      </c>
+      <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
         <v>79</v>
       </c>
@@ -5919,13 +6200,11 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
-        <v>79</v>
+        <v>287</v>
       </c>
       <c r="AA33" t="s" s="2">
         <v>79</v>
@@ -5943,48 +6222,48 @@
         <v>79</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>294</v>
+        <v>283</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH33" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI33" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK33" t="s" s="2">
-        <v>79</v>
+        <v>288</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>79</v>
+        <v>289</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>106</v>
+        <v>290</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AO33" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="AP33" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
       <c r="AQ33" t="s" s="2">
-        <v>79</v>
+        <v>294</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5992,7 +6271,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>92</v>
@@ -6004,20 +6283,18 @@
         <v>79</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>341</v>
+        <v>180</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>342</v>
+        <v>181</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="N34" t="s" s="2">
-        <v>344</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" t="s" s="2">
         <v>79</v>
@@ -6066,59 +6343,59 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>340</v>
+        <v>183</v>
       </c>
       <c r="AG34" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="AH34" t="s" s="2">
         <v>92</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>345</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>346</v>
+        <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>336</v>
+        <v>113</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>347</v>
+        <v>79</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP34" t="s" s="2">
-        <v>348</v>
+        <v>79</v>
       </c>
       <c r="AQ34" t="s" s="2">
-        <v>349</v>
+        <v>79</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>350</v>
+        <v>296</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>79</v>
@@ -6130,15 +6407,17 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>284</v>
+        <v>141</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N35" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>143</v>
+      </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
         <v>79</v>
@@ -6175,31 +6454,31 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>286</v>
+        <v>187</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH35" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -6208,7 +6487,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6225,21 +6504,21 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>79</v>
@@ -6248,21 +6527,23 @@
         <v>79</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>140</v>
+        <v>298</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>141</v>
+        <v>299</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>288</v>
+        <v>300</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O36" s="2"/>
+        <v>301</v>
+      </c>
+      <c r="O36" t="s" s="2">
+        <v>302</v>
+      </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6298,19 +6579,19 @@
         <v>79</v>
       </c>
       <c r="AB36" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC36" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD36" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>289</v>
+        <v>303</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6322,7 +6603,7 @@
         <v>104</v>
       </c>
       <c r="AJ36" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
@@ -6331,7 +6612,7 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>106</v>
+        <v>304</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6340,7 +6621,7 @@
         <v>79</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>79</v>
+        <v>305</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>79</v>
@@ -6348,10 +6629,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>352</v>
+        <v>306</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6374,19 +6655,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>115</v>
+        <v>180</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>353</v>
+        <v>307</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>354</v>
+        <v>308</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>355</v>
+        <v>309</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>356</v>
+        <v>310</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6399,7 +6680,7 @@
         <v>79</v>
       </c>
       <c r="T37" t="s" s="2">
-        <v>357</v>
+        <v>79</v>
       </c>
       <c r="U37" t="s" s="2">
         <v>79</v>
@@ -6411,13 +6692,13 @@
         <v>79</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>178</v>
+        <v>79</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>358</v>
+        <v>79</v>
       </c>
       <c r="Z37" t="s" s="2">
-        <v>359</v>
+        <v>79</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>79</v>
@@ -6435,7 +6716,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>360</v>
+        <v>311</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6456,7 +6737,7 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>361</v>
+        <v>312</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6465,7 +6746,7 @@
         <v>79</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>362</v>
+        <v>313</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>79</v>
@@ -6473,21 +6754,21 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>363</v>
+        <v>314</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>79</v>
+        <v>315</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G38" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H38" t="s" s="2">
         <v>79</v>
@@ -6499,20 +6780,18 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>115</v>
+        <v>202</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>364</v>
+        <v>316</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>365</v>
+        <v>317</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>366</v>
-      </c>
+        <v>318</v>
+      </c>
+      <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
         <v>79</v>
       </c>
@@ -6524,7 +6803,7 @@
         <v>79</v>
       </c>
       <c r="T38" t="s" s="2">
-        <v>367</v>
+        <v>79</v>
       </c>
       <c r="U38" t="s" s="2">
         <v>79</v>
@@ -6536,13 +6815,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>119</v>
+        <v>319</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>120</v>
+        <v>320</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>121</v>
+        <v>321</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6560,13 +6839,13 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH38" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
         <v>104</v>
@@ -6578,30 +6857,30 @@
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>79</v>
+        <v>322</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>369</v>
+        <v>323</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>79</v>
+        <v>324</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>79</v>
+        <v>292</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>79</v>
+        <v>325</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>79</v>
+        <v>326</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>370</v>
+        <v>327</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6621,23 +6900,21 @@
         <v>79</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>371</v>
+        <v>328</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>372</v>
+        <v>329</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>374</v>
-      </c>
-      <c r="O39" t="s" s="2">
-        <v>375</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
       </c>
@@ -6685,7 +6962,7 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>376</v>
+        <v>327</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6697,40 +6974,40 @@
         <v>104</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>79</v>
+        <v>332</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>79</v>
+        <v>333</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>377</v>
+        <v>334</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>79</v>
+        <v>335</v>
       </c>
       <c r="AO39" t="s" s="2">
-        <v>79</v>
+        <v>336</v>
       </c>
       <c r="AP39" t="s" s="2">
-        <v>378</v>
+        <v>337</v>
       </c>
       <c r="AQ39" t="s" s="2">
-        <v>79</v>
+        <v>338</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>379</v>
+        <v>339</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -6749,20 +7026,18 @@
         <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>380</v>
+        <v>341</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>381</v>
+        <v>342</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>382</v>
+        <v>343</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>383</v>
-      </c>
-      <c r="O40" t="s" s="2">
-        <v>384</v>
-      </c>
+        <v>344</v>
+      </c>
+      <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
         <v>79</v>
       </c>
@@ -6774,7 +7049,7 @@
         <v>79</v>
       </c>
       <c r="T40" t="s" s="2">
-        <v>385</v>
+        <v>79</v>
       </c>
       <c r="U40" t="s" s="2">
         <v>79</v>
@@ -6810,7 +7085,7 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>386</v>
+        <v>339</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6825,22 +7100,22 @@
         <v>105</v>
       </c>
       <c r="AK40" t="s" s="2">
-        <v>79</v>
+        <v>345</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>79</v>
+        <v>346</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>387</v>
+        <v>347</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>79</v>
+        <v>348</v>
       </c>
       <c r="AP40" t="s" s="2">
-        <v>388</v>
+        <v>79</v>
       </c>
       <c r="AQ40" t="s" s="2">
         <v>79</v>
@@ -6848,10 +7123,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>389</v>
+        <v>349</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6862,7 +7137,7 @@
         <v>80</v>
       </c>
       <c r="G41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H41" t="s" s="2">
         <v>79</v>
@@ -6874,20 +7149,18 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>390</v>
+        <v>350</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>392</v>
+        <v>352</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>393</v>
-      </c>
-      <c r="O41" t="s" s="2">
-        <v>394</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
         <v>79</v>
       </c>
@@ -6935,48 +7208,48 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH41" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="AK41" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>79</v>
+        <v>355</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>396</v>
+        <v>356</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>79</v>
+        <v>357</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>79</v>
+        <v>358</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>79</v>
+        <v>359</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>397</v>
+        <v>360</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6996,23 +7269,21 @@
         <v>79</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>398</v>
+        <v>362</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>399</v>
+        <v>363</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>400</v>
-      </c>
-      <c r="O42" t="s" s="2">
-        <v>401</v>
-      </c>
+        <v>364</v>
+      </c>
+      <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
         <v>79</v>
       </c>
@@ -7060,7 +7331,7 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>402</v>
+        <v>360</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -7072,36 +7343,36 @@
         <v>104</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="AK42" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>79</v>
+        <v>365</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>403</v>
+        <v>366</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>79</v>
+        <v>367</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>79</v>
+        <v>368</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>79</v>
+        <v>369</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>79</v>
+        <v>370</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>404</v>
+        <v>371</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7109,7 +7380,7 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>92</v>
@@ -7121,23 +7392,21 @@
         <v>79</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>283</v>
+        <v>243</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>405</v>
+        <v>372</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>406</v>
+        <v>373</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>355</v>
-      </c>
-      <c r="O43" t="s" s="2">
-        <v>407</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
         <v>79</v>
       </c>
@@ -7149,7 +7418,7 @@
         <v>79</v>
       </c>
       <c r="T43" t="s" s="2">
-        <v>408</v>
+        <v>79</v>
       </c>
       <c r="U43" t="s" s="2">
         <v>79</v>
@@ -7185,7 +7454,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>409</v>
+        <v>371</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7197,16 +7466,16 @@
         <v>104</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>105</v>
+        <v>248</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>79</v>
+        <v>354</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7223,10 +7492,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7237,7 +7506,7 @@
         <v>80</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>79</v>
@@ -7249,18 +7518,18 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>412</v>
+        <v>378</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>414</v>
-      </c>
-      <c r="N44" s="2"/>
-      <c r="O44" t="s" s="2">
-        <v>415</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="N44" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
         <v>79</v>
       </c>
@@ -7308,13 +7577,13 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>416</v>
+        <v>377</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>104</v>
@@ -7326,10 +7595,10 @@
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>396</v>
+        <v>383</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7341,15 +7610,15 @@
         <v>79</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>79</v>
+        <v>384</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>417</v>
+        <v>385</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7369,20 +7638,18 @@
         <v>79</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>418</v>
+        <v>180</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>419</v>
+        <v>181</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="N45" t="s" s="2">
-        <v>421</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
         <v>79</v>
@@ -7407,13 +7674,13 @@
         <v>79</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>119</v>
+        <v>79</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>422</v>
+        <v>79</v>
       </c>
       <c r="Z45" t="s" s="2">
-        <v>423</v>
+        <v>79</v>
       </c>
       <c r="AA45" t="s" s="2">
         <v>79</v>
@@ -7431,7 +7698,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>417</v>
+        <v>183</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7440,50 +7707,50 @@
         <v>92</v>
       </c>
       <c r="AI45" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>424</v>
+        <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>336</v>
+        <v>113</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>425</v>
+        <v>79</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP45" t="s" s="2">
-        <v>426</v>
+        <v>79</v>
       </c>
       <c r="AQ45" t="s" s="2">
-        <v>427</v>
+        <v>79</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>428</v>
+        <v>386</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>79</v>
@@ -7492,19 +7759,19 @@
         <v>79</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>275</v>
+        <v>140</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>429</v>
+        <v>141</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>430</v>
+        <v>186</v>
       </c>
       <c r="N46" t="s" s="2">
-        <v>431</v>
+        <v>143</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7542,31 +7809,31 @@
         <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>428</v>
+        <v>187</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH46" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7575,7 +7842,7 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>432</v>
+        <v>106</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7592,42 +7859,46 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>433</v>
+        <v>387</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H47" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>283</v>
+        <v>140</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>284</v>
+        <v>389</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="N47" s="2"/>
-      <c r="O47" s="2"/>
+        <v>390</v>
+      </c>
+      <c r="N47" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O47" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
       </c>
@@ -7675,19 +7946,19 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH47" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>79</v>
+        <v>104</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>79</v>
+        <v>148</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7696,7 +7967,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7713,21 +7984,21 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>434</v>
+        <v>392</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
-        <v>139</v>
+        <v>79</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G48" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s" s="2">
         <v>79</v>
@@ -7736,19 +8007,19 @@
         <v>79</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>140</v>
+        <v>115</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>141</v>
+        <v>393</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>288</v>
+        <v>394</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>143</v>
+        <v>395</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -7774,52 +8045,52 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>79</v>
+        <v>195</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>79</v>
+        <v>396</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>79</v>
+        <v>397</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB48" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC48" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>289</v>
+        <v>392</v>
       </c>
       <c r="AG48" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>148</v>
+        <v>105</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>79</v>
+        <v>398</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>106</v>
+        <v>399</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -7831,51 +8102,49 @@
         <v>79</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>79</v>
+        <v>400</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>291</v>
+        <v>79</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="J49" t="s" s="2">
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>140</v>
+        <v>402</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>292</v>
+        <v>403</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>293</v>
+        <v>404</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>152</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
       </c>
@@ -7923,28 +8192,28 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>294</v>
+        <v>401</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH49" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI49" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ49" t="s" s="2">
-        <v>148</v>
+        <v>248</v>
       </c>
       <c r="AK49" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>79</v>
+        <v>405</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>106</v>
+        <v>406</v>
       </c>
       <c r="AN49" t="s" s="2">
         <v>79</v>
@@ -7956,15 +8225,15 @@
         <v>79</v>
       </c>
       <c r="AQ49" t="s" s="2">
-        <v>79</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7975,7 +8244,7 @@
         <v>80</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>79</v>
@@ -7984,21 +8253,23 @@
         <v>79</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>437</v>
+        <v>180</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>438</v>
+        <v>409</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>439</v>
+        <v>410</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O50" s="2"/>
+        <v>411</v>
+      </c>
+      <c r="O50" t="s" s="2">
+        <v>412</v>
+      </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
       </c>
@@ -8046,48 +8317,48 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>436</v>
+        <v>408</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>227</v>
+        <v>105</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>440</v>
+        <v>79</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>441</v>
+        <v>79</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>442</v>
+        <v>413</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO50" t="s" s="2">
-        <v>443</v>
+        <v>79</v>
       </c>
       <c r="AP50" t="s" s="2">
-        <v>79</v>
+        <v>414</v>
       </c>
       <c r="AQ50" t="s" s="2">
-        <v>79</v>
+        <v>415</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8107,21 +8378,23 @@
         <v>79</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>445</v>
+        <v>417</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>446</v>
+        <v>418</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>447</v>
-      </c>
-      <c r="O51" s="2"/>
+        <v>419</v>
+      </c>
+      <c r="O51" t="s" s="2">
+        <v>420</v>
+      </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
       </c>
@@ -8145,13 +8418,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>448</v>
+        <v>421</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>449</v>
+        <v>422</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -8169,7 +8442,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>444</v>
+        <v>416</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8187,30 +8460,30 @@
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>450</v>
+        <v>423</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>451</v>
+        <v>424</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>79</v>
+        <v>425</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>220</v>
+        <v>426</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>452</v>
+        <v>427</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8218,7 +8491,7 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G52" t="s" s="2">
         <v>92</v>
@@ -8233,17 +8506,15 @@
         <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>454</v>
+        <v>378</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>455</v>
+        <v>429</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>457</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="N52" s="2"/>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
         <v>79</v>
@@ -8292,48 +8563,48 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>453</v>
+        <v>428</v>
       </c>
       <c r="AG52" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH52" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>458</v>
+        <v>105</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>459</v>
+        <v>431</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>460</v>
+        <v>432</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>461</v>
+        <v>79</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP52" t="s" s="2">
-        <v>462</v>
+        <v>79</v>
       </c>
       <c r="AQ52" t="s" s="2">
-        <v>463</v>
+        <v>79</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>464</v>
+        <v>433</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8356,17 +8627,15 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>465</v>
+        <v>181</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>466</v>
-      </c>
-      <c r="N53" t="s" s="2">
-        <v>467</v>
-      </c>
+        <v>182</v>
+      </c>
+      <c r="N53" s="2"/>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
         <v>79</v>
@@ -8391,13 +8660,13 @@
         <v>79</v>
       </c>
       <c r="X53" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>468</v>
+        <v>79</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>469</v>
+        <v>79</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>79</v>
@@ -8415,7 +8684,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>464</v>
+        <v>183</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8424,50 +8693,50 @@
         <v>92</v>
       </c>
       <c r="AI53" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>105</v>
+        <v>79</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>471</v>
+        <v>113</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>472</v>
+        <v>79</v>
       </c>
       <c r="AO53" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP53" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AQ53" t="s" s="2">
-        <v>473</v>
+        <v>79</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>474</v>
+        <v>434</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>79</v>
+        <v>139</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H54" t="s" s="2">
         <v>79</v>
@@ -8479,20 +8748,18 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>196</v>
+        <v>140</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>475</v>
+        <v>141</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>476</v>
+        <v>186</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>477</v>
-      </c>
-      <c r="O54" t="s" s="2">
-        <v>478</v>
-      </c>
+        <v>143</v>
+      </c>
+      <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
         <v>79</v>
       </c>
@@ -8516,106 +8783,108 @@
         <v>79</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>214</v>
+        <v>79</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>479</v>
+        <v>79</v>
       </c>
       <c r="Z54" t="s" s="2">
-        <v>480</v>
+        <v>79</v>
       </c>
       <c r="AA54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>474</v>
+        <v>187</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH54" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>105</v>
+        <v>148</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>471</v>
+        <v>106</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>470</v>
+        <v>79</v>
       </c>
       <c r="AO54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP54" t="s" s="2">
-        <v>220</v>
+        <v>79</v>
       </c>
       <c r="AQ54" t="s" s="2">
-        <v>481</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>482</v>
+        <v>435</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>79</v>
+        <v>388</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="H55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="I55" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>483</v>
+        <v>140</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>484</v>
+        <v>389</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>485</v>
+        <v>390</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="O55" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="O55" t="s" s="2">
+        <v>152</v>
+      </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
       </c>
@@ -8663,31 +8932,31 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>482</v>
+        <v>391</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AH55" t="s" s="2">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>227</v>
+        <v>148</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>229</v>
+        <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>230</v>
+        <v>106</v>
       </c>
       <c r="AN55" t="s" s="2">
-        <v>231</v>
+        <v>79</v>
       </c>
       <c r="AO55" t="s" s="2">
         <v>79</v>
@@ -8696,15 +8965,15 @@
         <v>79</v>
       </c>
       <c r="AQ55" t="s" s="2">
-        <v>486</v>
+        <v>79</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>487</v>
+        <v>436</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>487</v>
+        <v>436</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8712,10 +8981,10 @@
       </c>
       <c r="E56" s="2"/>
       <c r="F56" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>79</v>
@@ -8724,19 +8993,19 @@
         <v>79</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>488</v>
+        <v>437</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>489</v>
+        <v>438</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>490</v>
+        <v>439</v>
       </c>
       <c r="N56" t="s" s="2">
-        <v>491</v>
+        <v>440</v>
       </c>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
@@ -8786,40 +9055,2760 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>487</v>
+        <v>436</v>
       </c>
       <c r="AG56" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>104</v>
       </c>
       <c r="AJ56" t="s" s="2">
-        <v>227</v>
+        <v>441</v>
       </c>
       <c r="AK56" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL56" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP56" t="s" s="2">
+        <v>444</v>
+      </c>
+      <c r="AQ56" t="s" s="2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="B57" t="s" s="2">
+        <v>446</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K57" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L57" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M57" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N57" s="2"/>
+      <c r="O57" s="2"/>
+      <c r="P57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q57" s="2"/>
+      <c r="R57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF57" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG57" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH57" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM57" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AN57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP57" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ57" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="B58" t="s" s="2">
+        <v>447</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K58" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L58" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O58" s="2"/>
+      <c r="P58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q58" s="2"/>
+      <c r="R58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB58" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC58" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE58" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF58" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG58" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH58" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI58" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ58" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM58" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP58" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ58" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="B59" t="s" s="2">
+        <v>448</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J59" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K59" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L59" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="M59" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="N59" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O59" t="s" s="2">
+        <v>452</v>
+      </c>
+      <c r="P59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q59" s="2"/>
+      <c r="R59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T59" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="U59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X59" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="Y59" t="s" s="2">
+        <v>454</v>
+      </c>
+      <c r="Z59" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AA59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF59" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="AG59" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH59" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI59" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>457</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>458</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="B60" t="s" s="2">
+        <v>459</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J60" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K60" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="L60" t="s" s="2">
+        <v>460</v>
+      </c>
+      <c r="M60" t="s" s="2">
+        <v>461</v>
+      </c>
+      <c r="N60" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O60" t="s" s="2">
+        <v>462</v>
+      </c>
+      <c r="P60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q60" s="2"/>
+      <c r="R60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T60" t="s" s="2">
+        <v>463</v>
+      </c>
+      <c r="U60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X60" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Y60" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="Z60" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="AA60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF60" t="s" s="2">
+        <v>464</v>
+      </c>
+      <c r="AG60" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH60" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI60" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>465</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="B61" t="s" s="2">
+        <v>466</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G61" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K61" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L61" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M61" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="N61" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="O61" t="s" s="2">
+        <v>471</v>
+      </c>
+      <c r="P61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q61" s="2"/>
+      <c r="R61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF61" t="s" s="2">
+        <v>472</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM61" t="s" s="2">
+        <v>473</v>
+      </c>
+      <c r="AN61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP61" t="s" s="2">
+        <v>474</v>
+      </c>
+      <c r="AQ61" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G62" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J62" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K62" t="s" s="2">
+        <v>476</v>
+      </c>
+      <c r="L62" t="s" s="2">
+        <v>477</v>
+      </c>
+      <c r="M62" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="N62" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="O62" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="P62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q62" s="2"/>
+      <c r="R62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T62" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="U62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF62" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="AG62" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH62" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI62" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM62" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AN62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP62" t="s" s="2">
+        <v>484</v>
+      </c>
+      <c r="AQ62" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="B63" t="s" s="2">
+        <v>485</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G63" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J63" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K63" t="s" s="2">
+        <v>486</v>
+      </c>
+      <c r="L63" t="s" s="2">
+        <v>487</v>
+      </c>
+      <c r="M63" t="s" s="2">
+        <v>488</v>
+      </c>
+      <c r="N63" t="s" s="2">
+        <v>489</v>
+      </c>
+      <c r="O63" t="s" s="2">
+        <v>490</v>
+      </c>
+      <c r="P63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q63" s="2"/>
+      <c r="R63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF63" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="AG63" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH63" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI63" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>492</v>
       </c>
-      <c r="AM56" t="s" s="2">
+      <c r="AN63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ63" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="s" s="2">
         <v>493</v>
       </c>
-      <c r="AN56" t="s" s="2">
+      <c r="B64" t="s" s="2">
+        <v>493</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E64" s="2"/>
+      <c r="F64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J64" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K64" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>494</v>
       </c>
-      <c r="AO56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ56" t="s" s="2">
+      <c r="M64" t="s" s="2">
         <v>495</v>
+      </c>
+      <c r="N64" t="s" s="2">
+        <v>496</v>
+      </c>
+      <c r="O64" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="P64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q64" s="2"/>
+      <c r="R64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF64" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="B65" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="G65" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J65" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K65" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L65" t="s" s="2">
+        <v>501</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>502</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="O65" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="P65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q65" s="2"/>
+      <c r="R65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>504</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>505</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>506</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ65" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="B66" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G66" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J66" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K66" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="L66" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="M66" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="N66" s="2"/>
+      <c r="O66" t="s" s="2">
+        <v>511</v>
+      </c>
+      <c r="P66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q66" s="2"/>
+      <c r="R66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>512</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>492</v>
+      </c>
+      <c r="AN66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="B67" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J67" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K67" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="L67" t="s" s="2">
+        <v>514</v>
+      </c>
+      <c r="M67" t="s" s="2">
+        <v>515</v>
+      </c>
+      <c r="N67" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="O67" s="2"/>
+      <c r="P67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q67" s="2"/>
+      <c r="R67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X67" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="Y67" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="Z67" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AA67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF67" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG67" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH67" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI67" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL67" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AM67" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="AN67" t="s" s="2">
+        <v>520</v>
+      </c>
+      <c r="AO67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP67" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AQ67" t="s" s="2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="B68" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G68" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J68" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K68" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="L68" t="s" s="2">
+        <v>524</v>
+      </c>
+      <c r="M68" t="s" s="2">
+        <v>525</v>
+      </c>
+      <c r="N68" t="s" s="2">
+        <v>526</v>
+      </c>
+      <c r="O68" s="2"/>
+      <c r="P68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q68" s="2"/>
+      <c r="R68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF68" t="s" s="2">
+        <v>523</v>
+      </c>
+      <c r="AG68" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH68" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI68" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM68" t="s" s="2">
+        <v>527</v>
+      </c>
+      <c r="AN68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ68" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>528</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G69" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K69" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="L69" t="s" s="2">
+        <v>181</v>
+      </c>
+      <c r="M69" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q69" s="2"/>
+      <c r="R69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF69" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AG69" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH69" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AK69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM69" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AN69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP69" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ69" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="B70" t="s" s="2">
+        <v>529</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K70" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L70" t="s" s="2">
+        <v>141</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="N70" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O70" s="2"/>
+      <c r="P70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q70" s="2"/>
+      <c r="R70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB70" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="AC70" t="s" s="2">
+        <v>145</v>
+      </c>
+      <c r="AD70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE70" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="AF70" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AG70" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH70" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI70" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ70" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM70" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP70" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ70" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="B71" t="s" s="2">
+        <v>530</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="J71" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K71" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="L71" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="M71" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="N71" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O71" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="P71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q71" s="2"/>
+      <c r="R71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF71" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="AG71" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH71" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI71" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ71" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AK71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM71" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="AN71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP71" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ71" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K72" t="s" s="2">
+        <v>532</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>533</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>534</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q72" s="2"/>
+      <c r="R72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF72" t="s" s="2">
+        <v>531</v>
+      </c>
+      <c r="AG72" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH72" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI72" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK72" t="s" s="2">
+        <v>535</v>
+      </c>
+      <c r="AL72" t="s" s="2">
+        <v>536</v>
+      </c>
+      <c r="AM72" t="s" s="2">
+        <v>537</v>
+      </c>
+      <c r="AN72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO72" t="s" s="2">
+        <v>538</v>
+      </c>
+      <c r="AP72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ72" t="s" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="B73" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K73" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L73" t="s" s="2">
+        <v>540</v>
+      </c>
+      <c r="M73" t="s" s="2">
+        <v>541</v>
+      </c>
+      <c r="N73" t="s" s="2">
+        <v>542</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q73" s="2"/>
+      <c r="R73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X73" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y73" t="s" s="2">
+        <v>543</v>
+      </c>
+      <c r="Z73" t="s" s="2">
+        <v>544</v>
+      </c>
+      <c r="AA73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF73" t="s" s="2">
+        <v>539</v>
+      </c>
+      <c r="AG73" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH73" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI73" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL73" t="s" s="2">
+        <v>545</v>
+      </c>
+      <c r="AM73" t="s" s="2">
+        <v>546</v>
+      </c>
+      <c r="AN73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP73" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AQ73" t="s" s="2">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="B74" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G74" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J74" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="K74" t="s" s="2">
+        <v>233</v>
+      </c>
+      <c r="L74" t="s" s="2">
+        <v>549</v>
+      </c>
+      <c r="M74" t="s" s="2">
+        <v>550</v>
+      </c>
+      <c r="N74" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q74" s="2"/>
+      <c r="R74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF74" t="s" s="2">
+        <v>548</v>
+      </c>
+      <c r="AG74" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH74" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI74" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="AK74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>551</v>
+      </c>
+      <c r="AM74" t="s" s="2">
+        <v>552</v>
+      </c>
+      <c r="AN74" t="s" s="2">
+        <v>553</v>
+      </c>
+      <c r="AO74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP74" t="s" s="2">
+        <v>554</v>
+      </c>
+      <c r="AQ74" t="s" s="2">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="B75" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G75" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K75" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>557</v>
+      </c>
+      <c r="M75" t="s" s="2">
+        <v>558</v>
+      </c>
+      <c r="N75" t="s" s="2">
+        <v>559</v>
+      </c>
+      <c r="O75" s="2"/>
+      <c r="P75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q75" s="2"/>
+      <c r="R75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X75" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>560</v>
+      </c>
+      <c r="Z75" t="s" s="2">
+        <v>561</v>
+      </c>
+      <c r="AA75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF75" t="s" s="2">
+        <v>556</v>
+      </c>
+      <c r="AG75" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH75" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI75" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL75" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM75" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN75" t="s" s="2">
+        <v>564</v>
+      </c>
+      <c r="AO75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP75" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AQ75" t="s" s="2">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="B76" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E76" s="2"/>
+      <c r="F76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K76" t="s" s="2">
+        <v>202</v>
+      </c>
+      <c r="L76" t="s" s="2">
+        <v>567</v>
+      </c>
+      <c r="M76" t="s" s="2">
+        <v>568</v>
+      </c>
+      <c r="N76" t="s" s="2">
+        <v>569</v>
+      </c>
+      <c r="O76" t="s" s="2">
+        <v>570</v>
+      </c>
+      <c r="P76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q76" s="2"/>
+      <c r="R76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X76" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="Y76" t="s" s="2">
+        <v>571</v>
+      </c>
+      <c r="Z76" t="s" s="2">
+        <v>572</v>
+      </c>
+      <c r="AA76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF76" t="s" s="2">
+        <v>566</v>
+      </c>
+      <c r="AG76" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH76" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI76" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AK76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL76" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AM76" t="s" s="2">
+        <v>563</v>
+      </c>
+      <c r="AN76" t="s" s="2">
+        <v>562</v>
+      </c>
+      <c r="AO76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP76" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AQ76" t="s" s="2">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="B77" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G77" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="H77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K77" t="s" s="2">
+        <v>575</v>
+      </c>
+      <c r="L77" t="s" s="2">
+        <v>576</v>
+      </c>
+      <c r="M77" t="s" s="2">
+        <v>577</v>
+      </c>
+      <c r="N77" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q77" s="2"/>
+      <c r="R77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF77" t="s" s="2">
+        <v>574</v>
+      </c>
+      <c r="AG77" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH77" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI77" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL77" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AM77" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="AN77" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AO77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ77" t="s" s="2">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="B78" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="G78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="H78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="I78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="J78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="K78" t="s" s="2">
+        <v>580</v>
+      </c>
+      <c r="L78" t="s" s="2">
+        <v>581</v>
+      </c>
+      <c r="M78" t="s" s="2">
+        <v>582</v>
+      </c>
+      <c r="N78" t="s" s="2">
+        <v>583</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Q78" s="2"/>
+      <c r="R78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="S78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="T78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF78" t="s" s="2">
+        <v>579</v>
+      </c>
+      <c r="AG78" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH78" t="s" s="2">
+        <v>81</v>
+      </c>
+      <c r="AI78" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
+        <v>248</v>
+      </c>
+      <c r="AK78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL78" t="s" s="2">
+        <v>584</v>
+      </c>
+      <c r="AM78" t="s" s="2">
+        <v>585</v>
+      </c>
+      <c r="AN78" t="s" s="2">
+        <v>586</v>
+      </c>
+      <c r="AO78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ78" t="s" s="2">
+        <v>587</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
+++ b/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2-ballot-3</t>
+    <t>4.0.2</t>
   </si>
   <si>
     <t>Name</t>
@@ -45,7 +45,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-04-18T09:33:23+00:00</t>
+    <t>2024-07-03T07:41:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
+++ b/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.2</t>
+    <t>4.0.3-ballot</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-03T07:41:49+00:00</t>
+    <t>2024-12-19T14:39:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil pour définir le dossier ESMS</t>
+    <t>Profil ESMS héritant du profil SDODocumentReference. Profil utilisé pour véhiculer les données de l'individu et de la décision, ou les données de l'évaluation dans un document CDA</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1550,7 +1550,7 @@
     <t>The calculated hash of the data using SHA-1. Represented using base64.</t>
   </si>
   <si>
-    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
+    <t>The hash is calculated on the data prior to base64 encoding, if the data is based64 encoded. The hash is not intended to support digital signatures. Where protection against malicious threats a digital signature should be considered, see [Provenance.signature](http://hl7.org/fhir/R4/provenance-definitions.html#Provenance.signature) for mechanism to protect a resource with a digital signature.</t>
   </si>
   <si>
     <t>Included so that applications can verify that the contents of a location have not changed due to technical failures (e.g., storage rot, transport glitch, incorrect version).</t>

--- a/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
+++ b/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3093" uniqueCount="588">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3081" uniqueCount="576">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3-ballot</t>
+    <t>4.0.3</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-19T14:39:02+00:00</t>
+    <t>2025-01-30T17:28:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}regle-NomPieceJointe-type:La combinaison entre le code du documentRefenrece et le nom de la pièce jointe doit être  : titre ="Document Individu et décision" et code = "57830-2"ou titre ="Document évaluation" et code = "51848-0" {(type.coding.where(code='57830-2').exists() implies (content.attachment.where(title='Document Individu et décision')).exists()) and (type.coding.where(code='51848-0').exists() implies (content.attachment.where(title='Document évaluation')).exists())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}regle-NomPieceJointe-type:La combinaison entre le code du documentRefenrece et le nom de la pièce jointe doit être  : titre ="Document Individu et décision" et code = "57830-2"ou titre ="Document évaluation" et code = "51848-0" {(type.coding.where(code='57830-2').exists() implies (content.attachment.where(title='Document Individu et décision')).exists()) and (type.coding.where(code='51848-0').exists() implies (content.attachment.where(title='Document évaluation')).exists())}</t>
   </si>
   <si>
     <t>Event</t>
@@ -331,17 +331,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1
-</t>
-  </si>
-  <si>
     <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>DocumentReference.implicitRules</t>
   </si>
   <si>
@@ -361,9 +354,6 @@
     <t>Resource.implicitRules</t>
   </si>
   <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DocumentReference.language</t>
   </si>
   <si>
@@ -441,6 +431,9 @@
     <t>DomainResource.contained</t>
   </si>
   <si>
+    <t>N/A</t>
+  </si>
+  <si>
     <t>DocumentReference.extension</t>
   </si>
   <si>
@@ -461,6 +454,137 @@
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DocumentReference.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DocumentReference.masterIdentifier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>Master Version Specific Identifier</t>
+  </si>
+  <si>
+    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
+  </si>
+  <si>
+    <t>CDA Document Id extension and root.</t>
+  </si>
+  <si>
+    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>Composition.identifier</t>
+  </si>
+  <si>
+    <t>.id</t>
+  </si>
+  <si>
+    <t>ClinicalDocument/id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>TXA-12</t>
+  </si>
+  <si>
+    <t>DocumentEntry.uniqueId</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>identifiants métier (idDecision) et technique (idNat_decision) de la décision d'orientation</t>
+  </si>
+  <si>
+    <t>Other identifiers associated with the document, including version independent identifiers.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:use}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>.id / .setId</t>
+  </si>
+  <si>
+    <t>TXA-16?</t>
+  </si>
+  <si>
+    <t>DocumentEntry.entryUUID</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idDecision</t>
+  </si>
+  <si>
+    <t>idDecision</t>
+  </si>
+  <si>
+    <t>Other identifiers for the document</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idDecision.id</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier:idDecision.extension</t>
+  </si>
+  <si>
+    <t>DocumentReference.identifier.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
     <t xml:space="preserve">value:url}
 </t>
   </si>
@@ -468,134 +592,6 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DocumentReference.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DocumentReference.masterIdentifier</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Master Version Specific Identifier</t>
-  </si>
-  <si>
-    <t>Document identifier as assigned by the source of the document. This identifier is specific to this version of the document. This unique identifier may be used elsewhere to identify this version of the document.</t>
-  </si>
-  <si>
-    <t>CDA Document Id extension and root.</t>
-  </si>
-  <si>
-    <t>The structure and format of this Id shall be consistent with the specification corresponding to the formatCode attribute. (e.g. for a DICOM standard document a 64-character numeric UID, for an HL7 CDA format a serialization of the CDA Document Id extension and root in the form "oid^extension", where OID is a 64 digits max, and the Id is a 16 UTF-8 char max. If the OID is coded without the extension then the '^' character shall not be included.).</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>Composition.identifier</t>
-  </si>
-  <si>
-    <t>.id</t>
-  </si>
-  <si>
-    <t>ClinicalDocument/id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>TXA-12</t>
-  </si>
-  <si>
-    <t>DocumentEntry.uniqueId</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>identifiants métier (idDecision) et technique (idNat_decision) de la décision d'orientation</t>
-  </si>
-  <si>
-    <t>Other identifiers associated with the document, including version independent identifiers.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:use}
-</t>
-  </si>
-  <si>
-    <t>.id / .setId</t>
-  </si>
-  <si>
-    <t>TXA-16?</t>
-  </si>
-  <si>
-    <t>DocumentEntry.entryUUID</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier:idDecision</t>
-  </si>
-  <si>
-    <t>idDecision</t>
-  </si>
-  <si>
-    <t>Other identifiers for the document</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier:idDecision.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier:idDecision.extension</t>
-  </si>
-  <si>
-    <t>DocumentReference.identifier.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -745,15 +741,7 @@
     <t>Time period during which identifier is/was valid for use.</t>
   </si>
   <si>
-    <t>A Period specifies a range of time; the context of use will specify whether the entire range applies (e.g. "the patient was an inpatient of the hospital for this time range") or one value from the range applies (e.g. "give to the patient between these two times").
-Period is not used for a duration (a measure of elapsed time). See [Duration](http://hl7.org/fhir/R4/datatypes.html#Duration).</t>
-  </si>
-  <si>
     <t>Identifier.period</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-per-1:If present, start SHALL have a lower value than end {start.hasValue().not() or end.hasValue().not() or (start &lt;= end)}</t>
   </si>
   <si>
     <t>Role.effectiveTime or implied by context</t>
@@ -784,10 +772,6 @@
     <t>Identifier.assigner</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ref-1:SHALL have a contained resource if a local reference is provided {reference.startsWith('#').not() or (reference.substring(1).trace('url') in %rootResource.contained.id.trace('ids'))}</t>
-  </si>
-  <si>
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
@@ -1020,9 +1004,6 @@
     <t>Derived from a mapping of /ClinicalDocument/code/@code to an Affinity Domain specified coded value to use and coding system. Affinity Domains are encouraged to use the appropriate value for Type of Service, based on the LOINC Type of Service (see Page 53 of the LOINC User's Manual). Must be consistent with /ClinicalDocument/code/@code</t>
   </si>
   <si>
-    <t>CE/CNE/CWE</t>
-  </si>
-  <si>
     <t>DocumentEntry.class</t>
   </si>
   <si>
@@ -1039,9 +1020,6 @@
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
   </si>
   <si>
-    <t>References SHALL be a reference to an actual FHIR resource, and SHALL be resolveable (allowing for access control, temporary unavailability, etc.). Resolution can be either by retrieval from the URL, or, where applicable by resource type, by treating an absolute reference as a canonical URL and looking it up in a local registry/repository.</t>
-  </si>
-  <si>
     <t>Event.subject</t>
   </si>
   <si>
@@ -1374,13 +1352,6 @@
   </si>
   <si>
     <t>The document or URL of the document along with critical metadata to prove content has integrity.</t>
-  </si>
-  <si>
-    <t>When providing a summary view (for example with Observation.value[x]) Attachment should be represented with a brief display text such as "Signed Procedure Consent".</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-att-1:If the Attachment has data, it SHALL have a contentType {data.empty() or contentType.exists()}</t>
   </si>
   <si>
     <t>Composition.language, 
@@ -1412,9 +1383,6 @@
     <t>Identifies the type of the data in the attachment and allows a method to be chosen to interpret or render the data. Includes mime type parameters such as charset where appropriate.</t>
   </si>
   <si>
-    <t>Note that FHIR strings SHALL NOT exceed 1MB in size</t>
-  </si>
-  <si>
     <t>Processors of the data need to be able to know how to interpret the data.</t>
   </si>
   <si>
@@ -1624,9 +1592,6 @@
   </si>
   <si>
     <t>derived from the IHE Profile or Implementation Guide templateID</t>
-  </si>
-  <si>
-    <t>CE/CNE/CWE subset one of the sets of component 1-3 or 4-6</t>
   </si>
   <si>
     <t>DocumentEntry.formatCode</t>
@@ -1730,9 +1695,6 @@
 @value</t>
   </si>
   <si>
-    <t>DR</t>
-  </si>
-  <si>
     <t>DocumentEntry.serviceStartTime, DocumentEntry.serviceStopTime</t>
   </si>
   <si>
@@ -1743,9 +1705,6 @@
   </si>
   <si>
     <t>The kind of facility where the patient was seen.</t>
-  </si>
-  <si>
-    <t>Not all terminology uses fit this general pattern. In some cases, models should not use CodeableConcept and use Coding directly and provide their own structure for managing text, codings, translations and the relationship between elements and pre- and post-coordination.</t>
   </si>
   <si>
     <t>XDS Facility Type.</t>
@@ -2658,11 +2617,11 @@
         <v>92</v>
       </c>
       <c r="AI4" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ4" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ4" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK4" t="s" s="2">
         <v>79</v>
       </c>
@@ -2670,7 +2629,7 @@
         <v>79</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>79</v>
@@ -2687,10 +2646,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
@@ -2713,16 +2672,16 @@
         <v>93</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>108</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>109</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>111</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2772,7 +2731,7 @@
         <v>79</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>80</v>
@@ -2781,11 +2740,11 @@
         <v>92</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ5" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK5" t="s" s="2">
         <v>79</v>
       </c>
@@ -2793,7 +2752,7 @@
         <v>79</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>79</v>
@@ -2810,10 +2769,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2836,16 +2795,16 @@
         <v>79</v>
       </c>
       <c r="K6" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="L6" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>115</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>118</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2871,32 +2830,32 @@
         <v>79</v>
       </c>
       <c r="X6" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Y6" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="Z6" t="s" s="2">
+        <v>118</v>
+      </c>
+      <c r="AA6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF6" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="Y6" t="s" s="2">
-        <v>120</v>
-      </c>
-      <c r="Z6" t="s" s="2">
-        <v>121</v>
-      </c>
-      <c r="AA6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE6" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF6" t="s" s="2">
-        <v>122</v>
-      </c>
       <c r="AG6" t="s" s="2">
         <v>80</v>
       </c>
@@ -2904,11 +2863,11 @@
         <v>92</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ6" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK6" t="s" s="2">
         <v>79</v>
       </c>
@@ -2916,7 +2875,7 @@
         <v>79</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>113</v>
+        <v>79</v>
       </c>
       <c r="AN6" t="s" s="2">
         <v>79</v>
@@ -2933,14 +2892,14 @@
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" t="s" s="2">
@@ -2959,16 +2918,16 @@
         <v>79</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="N7" t="s" s="2">
         <v>125</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>128</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3018,7 +2977,7 @@
         <v>79</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>80</v>
@@ -3027,11 +2986,11 @@
         <v>92</v>
       </c>
       <c r="AI7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ7" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK7" t="s" s="2">
         <v>79</v>
       </c>
@@ -3039,7 +2998,7 @@
         <v>79</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AN7" t="s" s="2">
         <v>79</v>
@@ -3056,14 +3015,14 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" t="s" s="2">
@@ -3082,16 +3041,16 @@
         <v>79</v>
       </c>
       <c r="K8" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M8" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N8" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="L8" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>135</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>136</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3141,7 +3100,7 @@
         <v>79</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>80</v>
@@ -3162,7 +3121,7 @@
         <v>79</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN8" t="s" s="2">
         <v>79</v>
@@ -3179,14 +3138,14 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" t="s" s="2">
@@ -3205,16 +3164,16 @@
         <v>79</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>140</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>142</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3252,19 +3211,19 @@
         <v>79</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD9" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE9" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>80</v>
@@ -3273,10 +3232,10 @@
         <v>81</v>
       </c>
       <c r="AI9" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>79</v>
@@ -3285,7 +3244,7 @@
         <v>79</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN9" t="s" s="2">
         <v>79</v>
@@ -3302,14 +3261,14 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" t="s" s="2">
@@ -3328,19 +3287,19 @@
         <v>79</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>79</v>
@@ -3377,19 +3336,19 @@
         <v>79</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD10" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>80</v>
@@ -3398,10 +3357,10 @@
         <v>81</v>
       </c>
       <c r="AI10" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>79</v>
@@ -3410,7 +3369,7 @@
         <v>79</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN10" t="s" s="2">
         <v>79</v>
@@ -3427,10 +3386,10 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3453,19 +3412,19 @@
         <v>93</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="P11" t="s" s="2">
         <v>79</v>
@@ -3514,7 +3473,7 @@
         <v>79</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>80</v>
@@ -3523,39 +3482,39 @@
         <v>92</v>
       </c>
       <c r="AI11" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ11" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ11" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK11" t="s" s="2">
+        <v>155</v>
+      </c>
+      <c r="AL11" t="s" s="2">
+        <v>156</v>
+      </c>
+      <c r="AM11" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="AN11" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="AO11" t="s" s="2">
+        <v>159</v>
+      </c>
+      <c r="AP11" t="s" s="2">
         <v>160</v>
       </c>
-      <c r="AL11" t="s" s="2">
+      <c r="AQ11" t="s" s="2">
         <v>161</v>
-      </c>
-      <c r="AM11" t="s" s="2">
-        <v>162</v>
-      </c>
-      <c r="AN11" t="s" s="2">
-        <v>163</v>
-      </c>
-      <c r="AO11" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="AP11" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AQ11" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3563,10 +3522,10 @@
       </c>
       <c r="E12" s="2"/>
       <c r="F12" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>79</v>
@@ -3578,13 +3537,13 @@
         <v>93</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="2"/>
@@ -3623,17 +3582,17 @@
         <v>79</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="AC12" s="2"/>
       <c r="AD12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>80</v>
@@ -3642,42 +3601,42 @@
         <v>81</v>
       </c>
       <c r="AI12" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ12" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ12" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK12" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AL12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AN12" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO12" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AP12" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AQ12" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s" s="2">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="D13" t="s" s="2">
         <v>79</v>
@@ -3699,13 +3658,13 @@
         <v>93</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" s="2"/>
@@ -3756,7 +3715,7 @@
         <v>79</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3765,39 +3724,39 @@
         <v>81</v>
       </c>
       <c r="AI13" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ13" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK13" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AL13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM13" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AN13" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO13" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AP13" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AQ13" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3820,13 +3779,13 @@
         <v>79</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3877,7 +3836,7 @@
         <v>79</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3898,7 +3857,7 @@
         <v>79</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>79</v>
@@ -3915,14 +3874,14 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -3941,16 +3900,16 @@
         <v>79</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M15" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N15" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M15" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -3988,19 +3947,19 @@
         <v>79</v>
       </c>
       <c r="AB15" t="s" s="2">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="AC15" t="s" s="2">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="AD15" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -4009,10 +3968,10 @@
         <v>81</v>
       </c>
       <c r="AI15" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK15" t="s" s="2">
         <v>79</v>
@@ -4021,7 +3980,7 @@
         <v>79</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>79</v>
@@ -4038,10 +3997,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="B16" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="B16" t="s" s="2">
-        <v>189</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4064,19 +4023,19 @@
         <v>93</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>79</v>
@@ -4086,68 +4045,68 @@
         <v>79</v>
       </c>
       <c r="S16" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="T16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="U16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X16" t="s" s="2">
         <v>194</v>
       </c>
-      <c r="T16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X16" t="s" s="2">
+      <c r="Y16" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y16" t="s" s="2">
+      <c r="Z16" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z16" t="s" s="2">
+      <c r="AA16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF16" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AA16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF16" t="s" s="2">
+      <c r="AG16" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH16" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ16" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL16" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM16" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AG16" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH16" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI16" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ16" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL16" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM16" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="AN16" t="s" s="2">
         <v>79</v>
       </c>
@@ -4155,7 +4114,7 @@
         <v>79</v>
       </c>
       <c r="AP16" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AQ16" t="s" s="2">
         <v>79</v>
@@ -4163,10 +4122,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="B17" t="s" s="2">
         <v>200</v>
-      </c>
-      <c r="B17" t="s" s="2">
-        <v>201</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -4189,19 +4148,19 @@
         <v>93</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L17" t="s" s="2">
+      <c r="M17" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="N17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>79</v>
@@ -4226,61 +4185,61 @@
         <v>79</v>
       </c>
       <c r="X17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z17" t="s" s="2">
+      <c r="AA17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF17" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AA17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF17" t="s" s="2">
+      <c r="AG17" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM17" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO17" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP17" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM17" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AN17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AQ17" t="s" s="2">
         <v>79</v>
@@ -4288,10 +4247,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="B18" t="s" s="2">
         <v>212</v>
-      </c>
-      <c r="B18" t="s" s="2">
-        <v>213</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4314,19 +4273,19 @@
         <v>93</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L18" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>79</v>
@@ -4339,73 +4298,73 @@
         <v>79</v>
       </c>
       <c r="T18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF18" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="U18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF18" t="s" s="2">
+      <c r="AG18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AG18" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO18" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP18" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP18" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AQ18" t="s" s="2">
         <v>79</v>
@@ -4413,10 +4372,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="B19" t="s" s="2">
         <v>222</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4439,16 +4398,16 @@
         <v>93</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="M19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4462,73 +4421,73 @@
         <v>79</v>
       </c>
       <c r="T19" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF19" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF19" t="s" s="2">
+      <c r="AG19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO19" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP19" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP19" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>79</v>
@@ -4536,10 +4495,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
+        <v>230</v>
+      </c>
+      <c r="B20" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="B20" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4562,17 +4521,15 @@
         <v>93</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M20" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="N20" s="2"/>
       <c r="O20" s="2"/>
       <c r="P20" t="s" s="2">
         <v>79</v>
@@ -4621,37 +4578,37 @@
         <v>79</v>
       </c>
       <c r="AF20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO20" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP20" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH20" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI20" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ20" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AK20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP20" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AQ20" t="s" s="2">
         <v>79</v>
@@ -4659,10 +4616,10 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4685,16 +4642,16 @@
         <v>93</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N21" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O21" s="2"/>
       <c r="P21" t="s" s="2">
@@ -4744,7 +4701,7 @@
         <v>79</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4753,11 +4710,11 @@
         <v>92</v>
       </c>
       <c r="AI21" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ21" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ21" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK21" t="s" s="2">
         <v>79</v>
       </c>
@@ -4765,7 +4722,7 @@
         <v>79</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>79</v>
@@ -4774,7 +4731,7 @@
         <v>79</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>79</v>
@@ -4782,13 +4739,13 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="C22" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="D22" t="s" s="2">
         <v>79</v>
@@ -4810,13 +4767,13 @@
         <v>93</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -4867,7 +4824,7 @@
         <v>79</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4876,39 +4833,39 @@
         <v>81</v>
       </c>
       <c r="AI22" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ22" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ22" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK22" t="s" s="2">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4931,13 +4888,13 @@
         <v>79</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -4988,7 +4945,7 @@
         <v>79</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -5009,7 +4966,7 @@
         <v>79</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>79</v>
@@ -5026,14 +4983,14 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
@@ -5052,16 +5009,16 @@
         <v>79</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M24" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5099,19 +5056,19 @@
         <v>79</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="AD24" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -5120,10 +5077,10 @@
         <v>81</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>79</v>
@@ -5132,7 +5089,7 @@
         <v>79</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="AN24" t="s" s="2">
         <v>79</v>
@@ -5149,10 +5106,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5175,19 +5132,19 @@
         <v>93</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L25" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M25" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="M25" t="s" s="2">
+      <c r="N25" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="N25" t="s" s="2">
+      <c r="O25" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="O25" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>79</v>
@@ -5197,7 +5154,7 @@
         <v>79</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>79</v>
@@ -5212,53 +5169,53 @@
         <v>79</v>
       </c>
       <c r="X25" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y25" t="s" s="2">
         <v>195</v>
       </c>
-      <c r="Y25" t="s" s="2">
+      <c r="Z25" t="s" s="2">
         <v>196</v>
       </c>
-      <c r="Z25" t="s" s="2">
+      <c r="AA25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF25" t="s" s="2">
         <v>197</v>
       </c>
-      <c r="AA25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF25" t="s" s="2">
+      <c r="AG25" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL25" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM25" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="AG25" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL25" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM25" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="AN25" t="s" s="2">
         <v>79</v>
       </c>
@@ -5266,7 +5223,7 @@
         <v>79</v>
       </c>
       <c r="AP25" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AQ25" t="s" s="2">
         <v>79</v>
@@ -5274,10 +5231,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -5300,19 +5257,19 @@
         <v>93</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>203</v>
       </c>
-      <c r="M26" t="s" s="2">
+      <c r="N26" t="s" s="2">
         <v>204</v>
       </c>
-      <c r="N26" t="s" s="2">
+      <c r="O26" t="s" s="2">
         <v>205</v>
-      </c>
-      <c r="O26" t="s" s="2">
-        <v>206</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>79</v>
@@ -5337,61 +5294,61 @@
         <v>79</v>
       </c>
       <c r="X26" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="Y26" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="Y26" t="s" s="2">
+      <c r="Z26" t="s" s="2">
         <v>208</v>
       </c>
-      <c r="Z26" t="s" s="2">
+      <c r="AA26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF26" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF26" t="s" s="2">
+      <c r="AG26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM26" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="AN26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO26" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP26" t="s" s="2">
         <v>210</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM26" t="s" s="2">
-        <v>199</v>
-      </c>
-      <c r="AN26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP26" t="s" s="2">
-        <v>211</v>
       </c>
       <c r="AQ26" t="s" s="2">
         <v>79</v>
@@ -5399,10 +5356,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5425,19 +5382,19 @@
         <v>93</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>215</v>
       </c>
-      <c r="N27" t="s" s="2">
+      <c r="O27" t="s" s="2">
         <v>216</v>
-      </c>
-      <c r="O27" t="s" s="2">
-        <v>217</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>79</v>
@@ -5450,73 +5407,73 @@
         <v>79</v>
       </c>
       <c r="T27" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF27" t="s" s="2">
         <v>218</v>
       </c>
-      <c r="U27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF27" t="s" s="2">
+      <c r="AG27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH27" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ27" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="AG27" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH27" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI27" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ27" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO27" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP27" t="s" s="2">
         <v>220</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP27" t="s" s="2">
-        <v>221</v>
       </c>
       <c r="AQ27" t="s" s="2">
         <v>79</v>
@@ -5524,10 +5481,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5550,16 +5507,16 @@
         <v>93</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="M28" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="N28" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5573,73 +5530,73 @@
         <v>79</v>
       </c>
       <c r="T28" t="s" s="2">
+        <v>226</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>227</v>
       </c>
-      <c r="U28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF28" t="s" s="2">
+      <c r="AG28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH28" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ28" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM28" t="s" s="2">
         <v>228</v>
       </c>
-      <c r="AG28" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH28" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI28" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ28" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO28" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>229</v>
-      </c>
-      <c r="AN28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP28" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AQ28" t="s" s="2">
         <v>79</v>
@@ -5647,10 +5604,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5673,17 +5630,15 @@
         <v>93</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>232</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>233</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="M29" t="s" s="2">
         <v>234</v>
       </c>
-      <c r="M29" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>236</v>
-      </c>
+      <c r="N29" s="2"/>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
         <v>79</v>
@@ -5732,37 +5687,37 @@
         <v>79</v>
       </c>
       <c r="AF29" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AG29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH29" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ29" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="AN29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO29" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP29" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH29" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI29" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ29" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="AK29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="AN29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="AQ29" t="s" s="2">
         <v>79</v>
@@ -5770,10 +5725,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5796,16 +5751,16 @@
         <v>93</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>241</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>242</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>243</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>245</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5855,7 +5810,7 @@
         <v>79</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5864,11 +5819,11 @@
         <v>92</v>
       </c>
       <c r="AI30" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ30" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ30" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK30" t="s" s="2">
         <v>79</v>
       </c>
@@ -5876,7 +5831,7 @@
         <v>79</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>79</v>
@@ -5885,7 +5840,7 @@
         <v>79</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="AQ30" t="s" s="2">
         <v>79</v>
@@ -5893,10 +5848,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5919,16 +5874,16 @@
         <v>93</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5954,72 +5909,72 @@
         <v>79</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y31" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>264</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>259</v>
+      </c>
+      <c r="AG31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH31" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ31" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO31" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="Z31" t="s" s="2">
+      <c r="AP31" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>263</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH31" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI31" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ31" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK31" t="s" s="2">
+      <c r="AQ31" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6042,16 +5997,16 @@
         <v>93</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="O32" s="2"/>
       <c r="P32" t="s" s="2">
@@ -6077,61 +6032,61 @@
         <v>79</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y32" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="Z32" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AA32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF32" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AG32" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH32" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ32" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL32" t="s" s="2">
+        <v>276</v>
+      </c>
+      <c r="AM32" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AN32" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO32" t="s" s="2">
+        <v>267</v>
+      </c>
+      <c r="AP32" t="s" s="2">
         <v>278</v>
-      </c>
-      <c r="Z32" t="s" s="2">
-        <v>279</v>
-      </c>
-      <c r="AA32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF32" t="s" s="2">
-        <v>274</v>
-      </c>
-      <c r="AG32" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH32" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI32" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ32" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL32" t="s" s="2">
-        <v>280</v>
-      </c>
-      <c r="AM32" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="AN32" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO32" t="s" s="2">
-        <v>271</v>
-      </c>
-      <c r="AP32" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="AQ32" t="s" s="2">
         <v>79</v>
@@ -6139,10 +6094,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -6165,16 +6120,16 @@
         <v>93</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6200,70 +6155,70 @@
         <v>79</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y33" s="2"/>
       <c r="Z33" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="AG33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH33" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AN33" t="s" s="2">
         <v>287</v>
       </c>
-      <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI33" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ33" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AO33" t="s" s="2">
         <v>288</v>
       </c>
-      <c r="AL33" t="s" s="2">
+      <c r="AP33" t="s" s="2">
         <v>289</v>
       </c>
-      <c r="AM33" t="s" s="2">
+      <c r="AQ33" t="s" s="2">
         <v>290</v>
-      </c>
-      <c r="AN33" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="AO33" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="AP33" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="AQ33" t="s" s="2">
-        <v>294</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -6286,13 +6241,13 @@
         <v>79</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N34" s="2"/>
       <c r="O34" s="2"/>
@@ -6343,7 +6298,7 @@
         <v>79</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -6364,7 +6319,7 @@
         <v>79</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>79</v>
@@ -6381,14 +6336,14 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -6407,16 +6362,16 @@
         <v>79</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L35" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N35" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6454,19 +6409,19 @@
         <v>79</v>
       </c>
       <c r="AB35" t="s" s="2">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="AC35" t="s" s="2">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="AD35" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6475,10 +6430,10 @@
         <v>81</v>
       </c>
       <c r="AI35" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ35" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK35" t="s" s="2">
         <v>79</v>
@@ -6487,7 +6442,7 @@
         <v>79</v>
       </c>
       <c r="AM35" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="AN35" t="s" s="2">
         <v>79</v>
@@ -6504,10 +6459,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6530,19 +6485,19 @@
         <v>93</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>296</v>
+      </c>
+      <c r="N36" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="O36" t="s" s="2">
         <v>298</v>
-      </c>
-      <c r="L36" t="s" s="2">
-        <v>299</v>
-      </c>
-      <c r="M36" t="s" s="2">
-        <v>300</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="O36" t="s" s="2">
-        <v>302</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>79</v>
@@ -6591,7 +6546,7 @@
         <v>79</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6600,11 +6555,11 @@
         <v>81</v>
       </c>
       <c r="AI36" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ36" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK36" t="s" s="2">
         <v>79</v>
       </c>
@@ -6612,7 +6567,7 @@
         <v>79</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AN36" t="s" s="2">
         <v>79</v>
@@ -6621,7 +6576,7 @@
         <v>79</v>
       </c>
       <c r="AP36" t="s" s="2">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="AQ36" t="s" s="2">
         <v>79</v>
@@ -6629,10 +6584,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6655,19 +6610,19 @@
         <v>93</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="N37" t="s" s="2">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="O37" t="s" s="2">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>79</v>
@@ -6716,7 +6671,7 @@
         <v>79</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6725,11 +6680,11 @@
         <v>92</v>
       </c>
       <c r="AI37" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ37" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK37" t="s" s="2">
         <v>79</v>
       </c>
@@ -6737,7 +6692,7 @@
         <v>79</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="AN37" t="s" s="2">
         <v>79</v>
@@ -6746,7 +6701,7 @@
         <v>79</v>
       </c>
       <c r="AP37" t="s" s="2">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="AQ37" t="s" s="2">
         <v>79</v>
@@ -6754,14 +6709,14 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
@@ -6780,16 +6735,16 @@
         <v>93</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="O38" s="2"/>
       <c r="P38" t="s" s="2">
@@ -6815,13 +6770,13 @@
         <v>79</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>79</v>
@@ -6839,7 +6794,7 @@
         <v>79</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6848,39 +6803,39 @@
         <v>81</v>
       </c>
       <c r="AI38" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ38" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK38" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="AO38" t="s" s="2">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="AP38" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AQ38" t="s" s="2">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6903,17 +6858,15 @@
         <v>93</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" t="s" s="2">
         <v>79</v>
@@ -6962,52 +6915,52 @@
         <v>79</v>
       </c>
       <c r="AF39" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AG39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH39" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI39" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ39" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AL39" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AG39" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH39" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI39" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ39" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="AN39" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="AO39" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="AP39" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="AQ39" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="AL39" t="s" s="2">
-        <v>333</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>334</v>
-      </c>
-      <c r="AN39" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="AO39" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="AP39" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AQ39" t="s" s="2">
-        <v>338</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="E40" s="2"/>
       <c r="F40" t="s" s="2">
@@ -7026,16 +6979,16 @@
         <v>93</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="N40" t="s" s="2">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="O40" s="2"/>
       <c r="P40" t="s" s="2">
@@ -7085,34 +7038,34 @@
         <v>79</v>
       </c>
       <c r="AF40" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="AG40" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH40" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI40" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ40" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK40" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="AG40" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH40" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI40" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ40" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK40" t="s" s="2">
-        <v>345</v>
-      </c>
       <c r="AL40" t="s" s="2">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO40" t="s" s="2">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="AP40" t="s" s="2">
         <v>79</v>
@@ -7123,10 +7076,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -7149,16 +7102,16 @@
         <v>93</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7208,7 +7161,7 @@
         <v>79</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -7217,39 +7170,39 @@
         <v>81</v>
       </c>
       <c r="AI41" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ41" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ41" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK41" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP41" t="s" s="2">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="AQ41" t="s" s="2">
-        <v>359</v>
+        <v>353</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -7272,16 +7225,16 @@
         <v>79</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -7331,48 +7284,48 @@
         <v>79</v>
       </c>
       <c r="AF42" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="AG42" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH42" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI42" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ42" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK42" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>360</v>
       </c>
-      <c r="AG42" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH42" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI42" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ42" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AK42" t="s" s="2">
-        <v>354</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>365</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="AN42" t="s" s="2">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="AO42" t="s" s="2">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="AP42" t="s" s="2">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="AQ42" t="s" s="2">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7395,16 +7348,16 @@
         <v>79</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -7454,7 +7407,7 @@
         <v>79</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -7463,19 +7416,19 @@
         <v>92</v>
       </c>
       <c r="AI43" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ43" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ43" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK43" t="s" s="2">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="AN43" t="s" s="2">
         <v>79</v>
@@ -7492,10 +7445,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7518,16 +7471,16 @@
         <v>93</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="O44" s="2"/>
       <c r="P44" t="s" s="2">
@@ -7577,7 +7530,7 @@
         <v>79</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7586,19 +7539,19 @@
         <v>81</v>
       </c>
       <c r="AI44" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ44" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ44" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK44" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>79</v>
@@ -7610,15 +7563,15 @@
         <v>79</v>
       </c>
       <c r="AQ44" t="s" s="2">
-        <v>384</v>
+        <v>378</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7641,13 +7594,13 @@
         <v>79</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7698,7 +7651,7 @@
         <v>79</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7719,7 +7672,7 @@
         <v>79</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>79</v>
@@ -7736,14 +7689,14 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
@@ -7762,16 +7715,16 @@
         <v>79</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L46" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M46" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N46" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M46" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N46" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O46" s="2"/>
       <c r="P46" t="s" s="2">
@@ -7809,19 +7762,19 @@
         <v>79</v>
       </c>
       <c r="AB46" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC46" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD46" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7830,10 +7783,10 @@
         <v>81</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>79</v>
@@ -7842,7 +7795,7 @@
         <v>79</v>
       </c>
       <c r="AM46" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="AN46" t="s" s="2">
         <v>79</v>
@@ -7859,14 +7812,14 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7885,19 +7838,19 @@
         <v>93</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O47" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>79</v>
@@ -7946,7 +7899,7 @@
         <v>79</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7955,10 +7908,10 @@
         <v>81</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>79</v>
@@ -7967,7 +7920,7 @@
         <v>79</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN47" t="s" s="2">
         <v>79</v>
@@ -7984,10 +7937,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8010,16 +7963,16 @@
         <v>93</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="O48" s="2"/>
       <c r="P48" t="s" s="2">
@@ -8045,13 +7998,13 @@
         <v>79</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>79</v>
@@ -8069,28 +8022,28 @@
         <v>79</v>
       </c>
       <c r="AF48" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AG48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH48" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ48" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK48" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL48" t="s" s="2">
         <v>392</v>
       </c>
-      <c r="AG48" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH48" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI48" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ48" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK48" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL48" t="s" s="2">
-        <v>398</v>
-      </c>
       <c r="AM48" t="s" s="2">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>79</v>
@@ -8102,15 +8055,15 @@
         <v>79</v>
       </c>
       <c r="AQ48" t="s" s="2">
-        <v>400</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8133,17 +8086,15 @@
         <v>93</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="N49" s="2"/>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
         <v>79</v>
@@ -8192,48 +8143,48 @@
         <v>79</v>
       </c>
       <c r="AF49" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AM49" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="AN49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP49" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AQ49" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AG49" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="AK49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>406</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AQ49" t="s" s="2">
-        <v>407</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8256,19 +8207,19 @@
         <v>93</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>79</v>
@@ -8317,48 +8268,48 @@
         <v>79</v>
       </c>
       <c r="AF50" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="AG50" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AH50" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ50" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AM50" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="AN50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AO50" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP50" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AG50" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AH50" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI50" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ50" t="s" s="2">
-        <v>105</v>
-      </c>
-      <c r="AK50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AM50" t="s" s="2">
-        <v>413</v>
-      </c>
-      <c r="AN50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AO50" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP50" t="s" s="2">
-        <v>414</v>
-      </c>
       <c r="AQ50" t="s" s="2">
-        <v>415</v>
+        <v>409</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8381,19 +8332,19 @@
         <v>93</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>79</v>
@@ -8418,13 +8369,13 @@
         <v>79</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>79</v>
@@ -8442,7 +8393,7 @@
         <v>79</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -8451,39 +8402,39 @@
         <v>81</v>
       </c>
       <c r="AI51" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ51" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ51" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="AQ51" t="s" s="2">
-        <v>427</v>
+        <v>421</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8506,13 +8457,13 @@
         <v>93</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" s="2"/>
@@ -8563,7 +8514,7 @@
         <v>79</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>92</v>
@@ -8572,19 +8523,19 @@
         <v>81</v>
       </c>
       <c r="AI52" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ52" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK52" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AN52" t="s" s="2">
         <v>79</v>
@@ -8601,10 +8552,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8627,13 +8578,13 @@
         <v>79</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" s="2"/>
@@ -8684,7 +8635,7 @@
         <v>79</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -8705,7 +8656,7 @@
         <v>79</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>79</v>
@@ -8722,14 +8673,14 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -8748,16 +8699,16 @@
         <v>79</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L54" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M54" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N54" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M54" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N54" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8795,19 +8746,19 @@
         <v>79</v>
       </c>
       <c r="AB54" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC54" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD54" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8816,10 +8767,10 @@
         <v>81</v>
       </c>
       <c r="AI54" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>79</v>
@@ -8828,7 +8779,7 @@
         <v>79</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="AN54" t="s" s="2">
         <v>79</v>
@@ -8845,14 +8796,14 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
@@ -8871,19 +8822,19 @@
         <v>93</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O55" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P55" t="s" s="2">
         <v>79</v>
@@ -8932,7 +8883,7 @@
         <v>79</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8941,10 +8892,10 @@
         <v>81</v>
       </c>
       <c r="AI55" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>79</v>
@@ -8953,7 +8904,7 @@
         <v>79</v>
       </c>
       <c r="AM55" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>79</v>
@@ -8970,10 +8921,10 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8996,17 +8947,15 @@
         <v>93</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>439</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>440</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="N56" s="2"/>
       <c r="O56" s="2"/>
       <c r="P56" t="s" s="2">
         <v>79</v>
@@ -9055,48 +9004,48 @@
         <v>79</v>
       </c>
       <c r="AF56" t="s" s="2">
+        <v>430</v>
+      </c>
+      <c r="AG56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AH56" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="AI56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ56" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="AK56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AL56" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AM56" t="s" s="2">
+        <v>426</v>
+      </c>
+      <c r="AN56" t="s" s="2">
+        <v>435</v>
+      </c>
+      <c r="AO56" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AP56" t="s" s="2">
         <v>436</v>
       </c>
-      <c r="AG56" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AH56" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="AI56" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="AJ56" t="s" s="2">
-        <v>441</v>
-      </c>
-      <c r="AK56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AL56" t="s" s="2">
-        <v>442</v>
-      </c>
-      <c r="AM56" t="s" s="2">
-        <v>432</v>
-      </c>
-      <c r="AN56" t="s" s="2">
-        <v>443</v>
-      </c>
-      <c r="AO56" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AP56" t="s" s="2">
-        <v>444</v>
-      </c>
       <c r="AQ56" t="s" s="2">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>446</v>
+        <v>438</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -9119,13 +9068,13 @@
         <v>79</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N57" s="2"/>
       <c r="O57" s="2"/>
@@ -9176,7 +9125,7 @@
         <v>79</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -9197,7 +9146,7 @@
         <v>79</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>79</v>
@@ -9214,14 +9163,14 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>447</v>
+        <v>439</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9240,16 +9189,16 @@
         <v>79</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L58" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N58" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M58" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N58" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O58" s="2"/>
       <c r="P58" t="s" s="2">
@@ -9287,19 +9236,19 @@
         <v>79</v>
       </c>
       <c r="AB58" t="s" s="2">
-        <v>144</v>
+        <v>184</v>
       </c>
       <c r="AC58" t="s" s="2">
-        <v>145</v>
+        <v>185</v>
       </c>
       <c r="AD58" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>146</v>
+        <v>167</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -9308,10 +9257,10 @@
         <v>81</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>79</v>
@@ -9320,7 +9269,7 @@
         <v>79</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>79</v>
@@ -9337,10 +9286,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>448</v>
+        <v>440</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9363,19 +9312,17 @@
         <v>93</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>449</v>
+        <v>441</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>450</v>
-      </c>
-      <c r="N59" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>442</v>
+      </c>
+      <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
-        <v>452</v>
+        <v>443</v>
       </c>
       <c r="P59" t="s" s="2">
         <v>79</v>
@@ -9388,7 +9335,7 @@
         <v>79</v>
       </c>
       <c r="T59" t="s" s="2">
-        <v>453</v>
+        <v>444</v>
       </c>
       <c r="U59" t="s" s="2">
         <v>79</v>
@@ -9400,13 +9347,13 @@
         <v>79</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="Z59" t="s" s="2">
-        <v>455</v>
+        <v>446</v>
       </c>
       <c r="AA59" t="s" s="2">
         <v>79</v>
@@ -9424,7 +9371,7 @@
         <v>79</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>456</v>
+        <v>447</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>80</v>
@@ -9433,11 +9380,11 @@
         <v>92</v>
       </c>
       <c r="AI59" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ59" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ59" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK59" t="s" s="2">
         <v>79</v>
       </c>
@@ -9445,7 +9392,7 @@
         <v>79</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>457</v>
+        <v>448</v>
       </c>
       <c r="AN59" t="s" s="2">
         <v>79</v>
@@ -9454,7 +9401,7 @@
         <v>79</v>
       </c>
       <c r="AP59" t="s" s="2">
-        <v>458</v>
+        <v>449</v>
       </c>
       <c r="AQ59" t="s" s="2">
         <v>79</v>
@@ -9462,10 +9409,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>459</v>
+        <v>450</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9488,19 +9435,17 @@
         <v>93</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>460</v>
+        <v>451</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>461</v>
-      </c>
-      <c r="N60" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>452</v>
+      </c>
+      <c r="N60" s="2"/>
       <c r="O60" t="s" s="2">
-        <v>462</v>
+        <v>453</v>
       </c>
       <c r="P60" t="s" s="2">
         <v>79</v>
@@ -9513,7 +9458,7 @@
         <v>79</v>
       </c>
       <c r="T60" t="s" s="2">
-        <v>463</v>
+        <v>454</v>
       </c>
       <c r="U60" t="s" s="2">
         <v>79</v>
@@ -9525,13 +9470,13 @@
         <v>79</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>79</v>
@@ -9549,7 +9494,7 @@
         <v>79</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>464</v>
+        <v>455</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -9558,11 +9503,11 @@
         <v>92</v>
       </c>
       <c r="AI60" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ60" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ60" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK60" t="s" s="2">
         <v>79</v>
       </c>
@@ -9570,7 +9515,7 @@
         <v>79</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="AN60" t="s" s="2">
         <v>79</v>
@@ -9587,10 +9532,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>466</v>
+        <v>457</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9613,19 +9558,19 @@
         <v>79</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="N61" t="s" s="2">
-        <v>470</v>
+        <v>461</v>
       </c>
       <c r="O61" t="s" s="2">
-        <v>471</v>
+        <v>462</v>
       </c>
       <c r="P61" t="s" s="2">
         <v>79</v>
@@ -9674,7 +9619,7 @@
         <v>79</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>472</v>
+        <v>463</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -9683,11 +9628,11 @@
         <v>92</v>
       </c>
       <c r="AI61" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ61" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK61" t="s" s="2">
         <v>79</v>
       </c>
@@ -9695,7 +9640,7 @@
         <v>79</v>
       </c>
       <c r="AM61" t="s" s="2">
-        <v>473</v>
+        <v>464</v>
       </c>
       <c r="AN61" t="s" s="2">
         <v>79</v>
@@ -9704,7 +9649,7 @@
         <v>79</v>
       </c>
       <c r="AP61" t="s" s="2">
-        <v>474</v>
+        <v>465</v>
       </c>
       <c r="AQ61" t="s" s="2">
         <v>79</v>
@@ -9712,10 +9657,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>475</v>
+        <v>466</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -9738,19 +9683,19 @@
         <v>93</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>476</v>
+        <v>467</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>477</v>
+        <v>468</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>478</v>
+        <v>469</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>479</v>
+        <v>470</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>480</v>
+        <v>471</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>79</v>
@@ -9763,7 +9708,7 @@
         <v>79</v>
       </c>
       <c r="T62" t="s" s="2">
-        <v>481</v>
+        <v>472</v>
       </c>
       <c r="U62" t="s" s="2">
         <v>79</v>
@@ -9799,7 +9744,7 @@
         <v>79</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>482</v>
+        <v>473</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -9808,11 +9753,11 @@
         <v>92</v>
       </c>
       <c r="AI62" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ62" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ62" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK62" t="s" s="2">
         <v>79</v>
       </c>
@@ -9820,7 +9765,7 @@
         <v>79</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>483</v>
+        <v>474</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>79</v>
@@ -9829,7 +9774,7 @@
         <v>79</v>
       </c>
       <c r="AP62" t="s" s="2">
-        <v>484</v>
+        <v>475</v>
       </c>
       <c r="AQ62" t="s" s="2">
         <v>79</v>
@@ -9837,10 +9782,10 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>485</v>
+        <v>476</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9863,19 +9808,19 @@
         <v>93</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>486</v>
+        <v>477</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>487</v>
+        <v>478</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>490</v>
+        <v>481</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>79</v>
@@ -9924,7 +9869,7 @@
         <v>79</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>491</v>
+        <v>482</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9933,11 +9878,11 @@
         <v>92</v>
       </c>
       <c r="AI63" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ63" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ63" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK63" t="s" s="2">
         <v>79</v>
       </c>
@@ -9945,7 +9890,7 @@
         <v>79</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>79</v>
@@ -9962,10 +9907,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>493</v>
+        <v>484</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9988,19 +9933,19 @@
         <v>93</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>494</v>
+        <v>485</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>495</v>
+        <v>486</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>496</v>
+        <v>487</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>497</v>
+        <v>488</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>79</v>
@@ -10049,7 +9994,7 @@
         <v>79</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>498</v>
+        <v>489</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -10058,11 +10003,11 @@
         <v>92</v>
       </c>
       <c r="AI64" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ64" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK64" t="s" s="2">
         <v>79</v>
       </c>
@@ -10070,7 +10015,7 @@
         <v>79</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>499</v>
+        <v>490</v>
       </c>
       <c r="AN64" t="s" s="2">
         <v>79</v>
@@ -10087,10 +10032,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>500</v>
+        <v>491</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10113,19 +10058,17 @@
         <v>93</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>501</v>
+        <v>492</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="N65" t="s" s="2">
-        <v>451</v>
-      </c>
+        <v>493</v>
+      </c>
+      <c r="N65" s="2"/>
       <c r="O65" t="s" s="2">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>79</v>
@@ -10138,7 +10081,7 @@
         <v>79</v>
       </c>
       <c r="T65" t="s" s="2">
-        <v>504</v>
+        <v>495</v>
       </c>
       <c r="U65" t="s" s="2">
         <v>79</v>
@@ -10174,7 +10117,7 @@
         <v>79</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>505</v>
+        <v>496</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -10183,11 +10126,11 @@
         <v>92</v>
       </c>
       <c r="AI65" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ65" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK65" t="s" s="2">
         <v>79</v>
       </c>
@@ -10195,7 +10138,7 @@
         <v>79</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>506</v>
+        <v>497</v>
       </c>
       <c r="AN65" t="s" s="2">
         <v>79</v>
@@ -10212,10 +10155,10 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10238,17 +10181,17 @@
         <v>93</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>509</v>
+        <v>500</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>79</v>
@@ -10297,7 +10240,7 @@
         <v>79</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -10306,11 +10249,11 @@
         <v>92</v>
       </c>
       <c r="AI66" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ66" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK66" t="s" s="2">
         <v>79</v>
       </c>
@@ -10318,7 +10261,7 @@
         <v>79</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>492</v>
+        <v>483</v>
       </c>
       <c r="AN66" t="s" s="2">
         <v>79</v>
@@ -10335,10 +10278,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10361,16 +10304,16 @@
         <v>93</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="O67" s="2"/>
       <c r="P67" t="s" s="2">
@@ -10396,13 +10339,13 @@
         <v>79</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="Z67" t="s" s="2">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>79</v>
@@ -10420,7 +10363,7 @@
         <v>79</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -10429,39 +10372,39 @@
         <v>92</v>
       </c>
       <c r="AI67" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ67" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ67" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP67" t="s" s="2">
-        <v>521</v>
+        <v>79</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>522</v>
+        <v>512</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10484,16 +10427,16 @@
         <v>93</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>524</v>
+        <v>514</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>525</v>
+        <v>515</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>526</v>
+        <v>516</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" t="s" s="2">
@@ -10543,7 +10486,7 @@
         <v>79</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>523</v>
+        <v>513</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -10552,11 +10495,11 @@
         <v>92</v>
       </c>
       <c r="AI68" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ68" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ68" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK68" t="s" s="2">
         <v>79</v>
       </c>
@@ -10564,7 +10507,7 @@
         <v>79</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>527</v>
+        <v>517</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>79</v>
@@ -10581,10 +10524,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>528</v>
+        <v>518</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10607,13 +10550,13 @@
         <v>79</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -10664,7 +10607,7 @@
         <v>79</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -10685,7 +10628,7 @@
         <v>79</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>79</v>
@@ -10702,14 +10645,14 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>529</v>
+        <v>519</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -10728,16 +10671,16 @@
         <v>79</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>186</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>143</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -10775,19 +10718,19 @@
         <v>79</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>144</v>
+        <v>79</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>145</v>
+        <v>79</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -10796,10 +10739,10 @@
         <v>81</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>79</v>
@@ -10808,7 +10751,7 @@
         <v>79</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>106</v>
+        <v>180</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>79</v>
@@ -10825,14 +10768,14 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>530</v>
+        <v>520</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -10851,19 +10794,19 @@
         <v>93</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>79</v>
@@ -10912,7 +10855,7 @@
         <v>79</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -10921,10 +10864,10 @@
         <v>81</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>79</v>
@@ -10933,7 +10876,7 @@
         <v>79</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>79</v>
@@ -10950,10 +10893,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10976,17 +10919,15 @@
         <v>79</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>532</v>
+        <v>522</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>533</v>
+        <v>523</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>534</v>
-      </c>
-      <c r="N72" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="N72" s="2"/>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
         <v>79</v>
@@ -11035,7 +10976,7 @@
         <v>79</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>531</v>
+        <v>521</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -11044,25 +10985,25 @@
         <v>81</v>
       </c>
       <c r="AI72" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ72" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ72" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK72" t="s" s="2">
-        <v>535</v>
+        <v>525</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>536</v>
+        <v>526</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>537</v>
+        <v>527</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AO72" t="s" s="2">
-        <v>538</v>
+        <v>528</v>
       </c>
       <c r="AP72" t="s" s="2">
         <v>79</v>
@@ -11073,10 +11014,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11099,16 +11040,16 @@
         <v>79</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>540</v>
+        <v>530</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>541</v>
+        <v>531</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>542</v>
+        <v>532</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11134,13 +11075,13 @@
         <v>79</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>543</v>
+        <v>533</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>544</v>
+        <v>534</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>79</v>
@@ -11158,7 +11099,7 @@
         <v>79</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -11167,19 +11108,19 @@
         <v>81</v>
       </c>
       <c r="AI73" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ73" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ73" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK73" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>545</v>
+        <v>535</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>546</v>
+        <v>536</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>79</v>
@@ -11188,18 +11129,18 @@
         <v>79</v>
       </c>
       <c r="AP73" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AQ73" t="s" s="2">
-        <v>547</v>
+        <v>537</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11222,17 +11163,15 @@
         <v>93</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>549</v>
+        <v>539</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>550</v>
-      </c>
-      <c r="N74" t="s" s="2">
-        <v>236</v>
-      </c>
+        <v>540</v>
+      </c>
+      <c r="N74" s="2"/>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
         <v>79</v>
@@ -11281,7 +11220,7 @@
         <v>79</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>548</v>
+        <v>538</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -11290,39 +11229,39 @@
         <v>92</v>
       </c>
       <c r="AI74" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ74" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ74" t="s" s="2">
-        <v>238</v>
-      </c>
       <c r="AK74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>551</v>
+        <v>541</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>552</v>
+        <v>542</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>553</v>
+        <v>543</v>
       </c>
       <c r="AO74" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP74" t="s" s="2">
-        <v>554</v>
+        <v>79</v>
       </c>
       <c r="AQ74" t="s" s="2">
-        <v>555</v>
+        <v>544</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11345,17 +11284,15 @@
         <v>79</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>558</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>559</v>
-      </c>
+        <v>547</v>
+      </c>
+      <c r="N75" s="2"/>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
         <v>79</v>
@@ -11380,13 +11317,13 @@
         <v>79</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>560</v>
+        <v>548</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>561</v>
+        <v>549</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>79</v>
@@ -11404,7 +11341,7 @@
         <v>79</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -11413,39 +11350,39 @@
         <v>92</v>
       </c>
       <c r="AI75" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ75" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ75" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>564</v>
+        <v>552</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP75" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>565</v>
+        <v>553</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -11468,19 +11405,19 @@
         <v>79</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>567</v>
+        <v>555</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>568</v>
+        <v>556</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>569</v>
+        <v>557</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>570</v>
+        <v>558</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>79</v>
@@ -11505,13 +11442,13 @@
         <v>79</v>
       </c>
       <c r="X76" t="s" s="2">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="Y76" t="s" s="2">
-        <v>571</v>
+        <v>559</v>
       </c>
       <c r="Z76" t="s" s="2">
-        <v>572</v>
+        <v>560</v>
       </c>
       <c r="AA76" t="s" s="2">
         <v>79</v>
@@ -11529,7 +11466,7 @@
         <v>79</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>566</v>
+        <v>554</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -11538,39 +11475,39 @@
         <v>92</v>
       </c>
       <c r="AI76" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ76" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ76" t="s" s="2">
-        <v>105</v>
-      </c>
       <c r="AK76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>563</v>
+        <v>551</v>
       </c>
       <c r="AN76" t="s" s="2">
-        <v>562</v>
+        <v>550</v>
       </c>
       <c r="AO76" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AP76" t="s" s="2">
-        <v>325</v>
+        <v>79</v>
       </c>
       <c r="AQ76" t="s" s="2">
-        <v>573</v>
+        <v>561</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -11593,17 +11530,15 @@
         <v>79</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>575</v>
+        <v>563</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>576</v>
+        <v>564</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>577</v>
-      </c>
-      <c r="N77" t="s" s="2">
-        <v>331</v>
-      </c>
+        <v>565</v>
+      </c>
+      <c r="N77" s="2"/>
       <c r="O77" s="2"/>
       <c r="P77" t="s" s="2">
         <v>79</v>
@@ -11652,7 +11587,7 @@
         <v>79</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>574</v>
+        <v>562</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -11661,22 +11596,22 @@
         <v>92</v>
       </c>
       <c r="AI77" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ77" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ77" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK77" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="AN77" t="s" s="2">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="AO77" t="s" s="2">
         <v>79</v>
@@ -11685,15 +11620,15 @@
         <v>79</v>
       </c>
       <c r="AQ77" t="s" s="2">
-        <v>578</v>
+        <v>566</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -11716,16 +11651,16 @@
         <v>79</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>580</v>
+        <v>568</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>581</v>
+        <v>569</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>582</v>
+        <v>570</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>583</v>
+        <v>571</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -11775,7 +11710,7 @@
         <v>79</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>579</v>
+        <v>567</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -11784,22 +11719,22 @@
         <v>81</v>
       </c>
       <c r="AI78" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AJ78" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="AJ78" t="s" s="2">
-        <v>248</v>
-      </c>
       <c r="AK78" t="s" s="2">
         <v>79</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>584</v>
+        <v>572</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>585</v>
+        <v>573</v>
       </c>
       <c r="AN78" t="s" s="2">
-        <v>586</v>
+        <v>574</v>
       </c>
       <c r="AO78" t="s" s="2">
         <v>79</v>
@@ -11808,7 +11743,7 @@
         <v>79</v>
       </c>
       <c r="AQ78" t="s" s="2">
-        <v>587</v>
+        <v>575</v>
       </c>
     </row>
   </sheetData>

--- a/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
+++ b/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.3</t>
+    <t>4.0.4</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-30T17:28:10+00:00</t>
+    <t>2025-06-19T08:13:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2102,17 +2102,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="52.484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="14.65234375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.99609375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2121,29 +2121,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="84.7890625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.69140625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="44.5859375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="72.20703125" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="139.26953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
+++ b/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.4</t>
+    <t>4.0.5</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-06-19T08:13:37+00:00</t>
+    <t>2025-10-13T14:57:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2102,17 +2102,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.99609375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="43.578125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="12.5625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="52.484375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="50.828125" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="14.65234375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="6.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.9453125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="5.4296875" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="66.81640625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="77.93359375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2121,29 +2121,29 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="32.7734375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="72.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="37.78125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="38.2265625" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="17.171875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.65625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="98.375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="84.7890625" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="6.34765625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="17.21484375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="14.4140625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="44.0703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="11.0390625" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="37" max="37" width="25.4609375" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="44.5859375" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="29.69921875" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="52.0078125" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="255.0" customWidth="true" bestFit="true"/>
     <col min="40" max="40" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="41" max="41" width="31.65234375" customWidth="true" bestFit="true"/>
-    <col min="42" max="42" width="72.20703125" customWidth="true" bestFit="true"/>
-    <col min="43" max="43" width="139.26953125" customWidth="true" bestFit="true"/>
+    <col min="41" max="41" width="36.91796875" customWidth="true" bestFit="true"/>
+    <col min="42" max="42" width="84.2265625" customWidth="true" bestFit="true"/>
+    <col min="43" max="43" width="162.44921875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
+++ b/www/ig/fhir/sdo/StructureDefinition-esms-document-reference.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.5</t>
+    <t>4.0.6</t>
   </si>
   <si>
     <t>Name</t>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-13T14:57:20+00:00</t>
+    <t>2025-12-15T14:22:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -78,7 +78,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Profil ESMS héritant du profil SDODocumentReference. Profil utilisé pour véhiculer les données de l'individu et de la décision, ou les données de l'évaluation dans un document CDA</t>
+    <t>Profil ESMS créé dans le contexte du suivi des orientations pour véhiculer les données de l'individu et de la décision, ou les données de l'évaluation dans un document CDA</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/sdo/StructureDefinition/sdo-document-reference</t>
+    <t>http://hl7.org/fhir/StructureDefinition/DocumentReference</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -275,7 +275,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}regle-NomPieceJointe-type:La combinaison entre le code du documentRefenrece et le nom de la pièce jointe doit être  : titre ="Document Individu et décision" et code = "57830-2"ou titre ="Document évaluation" et code = "51848-0" {(type.coding.where(code='57830-2').exists() implies (content.attachment.where(title='Document Individu et décision')).exists()) and (type.coding.where(code='51848-0').exists() implies (content.attachment.where(title='Document évaluation')).exists())}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}regle-NomPieceJointe-type:La combinaison entre le code du documentRefenrece et le nom de la pièce jointe doit être  : titre ="Document Individu et décision" et code = "57830-2"ou titre ="Document évaluation" et code = "51848-0" {(type.coding.where(code='57830-2').exists() implies (content.attachment.where(title='Document Individu et décision')).exists()) and (type.coding.where(code='51848-0').exists() implies (content.attachment.where(title='Document évaluation')).exists())}regle-Contenu:Le transport des données devient obligatoire lorsque la ressource complète est transportée, le champs data doit alors être rempli {content.attachment.data.exists()}</t>
   </si>
   <si>
     <t>Event</t>
